--- a/preds_on_bikes.xlsx
+++ b/preds_on_bikes.xlsx
@@ -12,12 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">hour</t>
   </si>
   <si>
     <t xml:space="preserve">weekday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">temp_air</t>
   </si>
   <si>
     <t xml:space="preserve">temp_air_a</t>
@@ -374,6 +377,9 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -386,10 +392,13 @@
         <v>45</v>
       </c>
       <c r="D2" t="n">
-        <v>16.9767637144421</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E2" t="n">
-        <v>4.00213952686416</v>
+        <v>1.51909784455185</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.98697383167867</v>
       </c>
     </row>
     <row r="3">
@@ -403,10 +412,13 @@
         <v>45</v>
       </c>
       <c r="D3" t="n">
-        <v>8.35560073030261</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E3" t="n">
-        <v>2.49339782634337</v>
+        <v>0.765218718164466</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.99490759522218</v>
       </c>
     </row>
     <row r="4">
@@ -420,10 +432,13 @@
         <v>45</v>
       </c>
       <c r="D4" t="n">
-        <v>5.55128581690879</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E4" t="n">
-        <v>1.99744932536886</v>
+        <v>0.522630523318821</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.66719776022737</v>
       </c>
     </row>
     <row r="5">
@@ -437,10 +452,13 @@
         <v>45</v>
       </c>
       <c r="D5" t="n">
-        <v>5.36939791238172</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E5" t="n">
-        <v>1.88415222416493</v>
+        <v>0.516040680436626</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.56541317198059</v>
       </c>
     </row>
     <row r="6">
@@ -454,10 +472,13 @@
         <v>45</v>
       </c>
       <c r="D6" t="n">
-        <v>12.0586677816676</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E6" t="n">
-        <v>1.61157420445872</v>
+        <v>1.19357136050775</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.898020602350587</v>
       </c>
     </row>
     <row r="7">
@@ -471,10 +492,13 @@
         <v>45</v>
       </c>
       <c r="D7" t="n">
-        <v>60.089315451147</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E7" t="n">
-        <v>3.85682124368508</v>
+        <v>6.0929501346025</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.310667626738736</v>
       </c>
     </row>
     <row r="8">
@@ -488,10 +512,13 @@
         <v>45</v>
       </c>
       <c r="D8" t="n">
-        <v>170.670601510661</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E8" t="n">
-        <v>7.05030284492188</v>
+        <v>17.7097004193403</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-2.99524095189659</v>
       </c>
     </row>
     <row r="9">
@@ -505,10 +532,13 @@
         <v>45</v>
       </c>
       <c r="D9" t="n">
-        <v>332.402376427666</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E9" t="n">
-        <v>14.3318297705246</v>
+        <v>33.5970483203945</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-5.29189098954254</v>
       </c>
     </row>
     <row r="10">
@@ -522,10 +552,13 @@
         <v>45</v>
       </c>
       <c r="D10" t="n">
-        <v>380.206551343543</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E10" t="n">
-        <v>31.0824509959966</v>
+        <v>35.6726691210291</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8.45555628851927</v>
       </c>
     </row>
     <row r="11">
@@ -539,10 +572,13 @@
         <v>45</v>
       </c>
       <c r="D11" t="n">
-        <v>302.370048645543</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E11" t="n">
-        <v>25.1661364664754</v>
+        <v>27.132199736465</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7.09018472958319</v>
       </c>
     </row>
     <row r="12">
@@ -556,10 +592,13 @@
         <v>45</v>
       </c>
       <c r="D12" t="n">
-        <v>283.403796544857</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E12" t="n">
-        <v>18.3860466829548</v>
+        <v>24.7541310427856</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.39950617295677</v>
       </c>
     </row>
     <row r="13">
@@ -573,10 +612,13 @@
         <v>45</v>
       </c>
       <c r="D13" t="n">
-        <v>307.301921100893</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E13" t="n">
-        <v>20.5666858038268</v>
+        <v>26.1533069411335</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.10255087257057</v>
       </c>
     </row>
     <row r="14">
@@ -590,10 +632,13 @@
         <v>45</v>
       </c>
       <c r="D14" t="n">
-        <v>351.082327354962</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E14" t="n">
-        <v>22.1685766867402</v>
+        <v>29.4059489467014</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.04282412744454</v>
       </c>
     </row>
     <row r="15">
@@ -607,10 +652,13 @@
         <v>45</v>
       </c>
       <c r="D15" t="n">
-        <v>363.085195647886</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E15" t="n">
-        <v>21.8857024922878</v>
+        <v>30.2146896358558</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0247875594146771</v>
       </c>
     </row>
     <row r="16">
@@ -624,10 +672,13 @@
         <v>45</v>
       </c>
       <c r="D16" t="n">
-        <v>388.028393296806</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E16" t="n">
-        <v>26.6084577877134</v>
+        <v>32.4963590947695</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3.25927119645335</v>
       </c>
     </row>
     <row r="17">
@@ -641,10 +692,13 @@
         <v>45</v>
       </c>
       <c r="D17" t="n">
-        <v>442.231606326209</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E17" t="n">
-        <v>33.1608791865066</v>
+        <v>37.2824195218521</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6.56627388210562</v>
       </c>
     </row>
     <row r="18">
@@ -658,10 +712,13 @@
         <v>45</v>
       </c>
       <c r="D18" t="n">
-        <v>525.778021542475</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E18" t="n">
-        <v>49.1150957812455</v>
+        <v>44.6113570127135</v>
+      </c>
+      <c r="F18" t="n">
+        <v>17.5149890375159</v>
       </c>
     </row>
     <row r="19">
@@ -675,10 +732,13 @@
         <v>45</v>
       </c>
       <c r="D19" t="n">
-        <v>626.723780583378</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E19" t="n">
-        <v>68.0789665600695</v>
+        <v>53.1728453247449</v>
+      </c>
+      <c r="F19" t="n">
+        <v>30.4116215147694</v>
       </c>
     </row>
     <row r="20">
@@ -692,10 +752,13 @@
         <v>45</v>
       </c>
       <c r="D20" t="n">
-        <v>526.133565715772</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E20" t="n">
-        <v>44.3683485531465</v>
+        <v>44.383913505795</v>
+      </c>
+      <c r="F20" t="n">
+        <v>12.7299547162263</v>
       </c>
     </row>
     <row r="21">
@@ -709,10 +772,13 @@
         <v>45</v>
       </c>
       <c r="D21" t="n">
-        <v>393.896463463231</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E21" t="n">
-        <v>28.6953381913558</v>
+        <v>32.9328378278471</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4.98943763436447</v>
       </c>
     </row>
     <row r="22">
@@ -726,10 +792,13 @@
         <v>45</v>
       </c>
       <c r="D22" t="n">
-        <v>259.411567910083</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E22" t="n">
-        <v>17.8370308751103</v>
+        <v>21.523178635683</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2.21396500559187</v>
       </c>
     </row>
     <row r="23">
@@ -743,10 +812,13 @@
         <v>45</v>
       </c>
       <c r="D23" t="n">
-        <v>146.654289277526</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E23" t="n">
-        <v>11.241855873107</v>
+        <v>12.2536788661153</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.41523934186075</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +832,13 @@
         <v>45</v>
       </c>
       <c r="D24" t="n">
-        <v>62.2125129381781</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E24" t="n">
-        <v>6.04677495115739</v>
+        <v>5.30957999324387</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2.30973560981294</v>
       </c>
     </row>
     <row r="25">
@@ -777,10 +852,13 @@
         <v>45</v>
       </c>
       <c r="D25" t="n">
-        <v>32.6336983588318</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E25" t="n">
-        <v>5.14622230258337</v>
+        <v>2.84841029153772</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3.19010532336772</v>
       </c>
     </row>
     <row r="26">
@@ -794,10 +872,13 @@
         <v>45</v>
       </c>
       <c r="D26" t="n">
-        <v>17.3233037588911</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E26" t="n">
-        <v>2.99358422118738</v>
+        <v>1.47213379287665</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.6305618027378</v>
       </c>
     </row>
     <row r="27">
@@ -811,10 +892,13 @@
         <v>45</v>
       </c>
       <c r="D27" t="n">
-        <v>8.52616034326429</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E27" t="n">
-        <v>0.739588899629104</v>
+        <v>0.741561406325344</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.420904732453919</v>
       </c>
     </row>
     <row r="28">
@@ -828,10 +912,13 @@
         <v>45</v>
       </c>
       <c r="D28" t="n">
-        <v>5.66460204526061</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E28" t="n">
-        <v>0.00122231102755177</v>
+        <v>0.506473007861731</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.767728787141383</v>
       </c>
     </row>
     <row r="29">
@@ -845,10 +932,13 @@
         <v>45</v>
       </c>
       <c r="D29" t="n">
-        <v>5.47900133400667</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.127798030732331</v>
+        <v>0.500086894925412</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.870032608010634</v>
       </c>
     </row>
     <row r="30">
@@ -862,10 +952,13 @@
         <v>45</v>
       </c>
       <c r="D30" t="n">
-        <v>12.3048166554662</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E30" t="n">
-        <v>0.177875700671319</v>
+        <v>1.15667120476468</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-1.4840405919825</v>
       </c>
     </row>
     <row r="31">
@@ -879,10 +972,13 @@
         <v>45</v>
       </c>
       <c r="D31" t="n">
-        <v>61.3158951690254</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E31" t="n">
-        <v>6.5751164050572</v>
+        <v>5.90458200150159</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-1.68535746099342</v>
       </c>
     </row>
     <row r="32">
@@ -896,10 +992,13 @@
         <v>45</v>
       </c>
       <c r="D32" t="n">
-        <v>174.154433813947</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E32" t="n">
-        <v>19.3277611965094</v>
+        <v>17.1621917196018</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-4.07594896412788</v>
       </c>
     </row>
     <row r="33">
@@ -913,10 +1012,13 @@
         <v>45</v>
       </c>
       <c r="D33" t="n">
-        <v>339.187576259611</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E33" t="n">
-        <v>40.5901386309658</v>
+        <v>32.5583703187688</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-5.12078929063947</v>
       </c>
     </row>
     <row r="34">
@@ -930,10 +1032,13 @@
         <v>45</v>
       </c>
       <c r="D34" t="n">
-        <v>387.967559119737</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E34" t="n">
-        <v>61.4731761583113</v>
+        <v>34.5698217422375</v>
+      </c>
+      <c r="F34" t="n">
+        <v>8.79020210385064</v>
       </c>
     </row>
     <row r="35">
@@ -947,10 +1052,13 @@
         <v>45</v>
       </c>
       <c r="D35" t="n">
-        <v>308.542210304867</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E35" t="n">
-        <v>48.8283105514823</v>
+        <v>26.293387388034</v>
+      </c>
+      <c r="F35" t="n">
+        <v>6.75190246529885</v>
       </c>
     </row>
     <row r="36">
@@ -964,10 +1072,13 @@
         <v>45</v>
       </c>
       <c r="D36" t="n">
-        <v>289.188807510647</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E36" t="n">
-        <v>40.4086892938961</v>
+        <v>23.9888384754652</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.873849055233554</v>
       </c>
     </row>
     <row r="37">
@@ -981,10 +1092,13 @@
         <v>45</v>
       </c>
       <c r="D37" t="n">
-        <v>313.574755145639</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E37" t="n">
-        <v>44.655193993943</v>
+        <v>25.3447577992427</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.6871388371635</v>
       </c>
     </row>
     <row r="38">
@@ -998,10 +1112,13 @@
         <v>45</v>
       </c>
       <c r="D38" t="n">
-        <v>358.248833726453</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E38" t="n">
-        <v>50.0416678097348</v>
+        <v>28.4968419324008</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.883697085276868</v>
       </c>
     </row>
     <row r="39">
@@ -1015,10 +1132,13 @@
         <v>45</v>
       </c>
       <c r="D39" t="n">
-        <v>370.496711880014</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E39" t="n">
-        <v>50.7963776482712</v>
+        <v>29.2805797952702</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.0706164841267878</v>
       </c>
     </row>
     <row r="40">
@@ -1032,10 +1152,13 @@
         <v>45</v>
       </c>
       <c r="D40" t="n">
-        <v>395.949065276599</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E40" t="n">
-        <v>57.6753395253737</v>
+        <v>31.4917097278733</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3.34364643413964</v>
       </c>
     </row>
     <row r="41">
@@ -1049,10 +1172,13 @@
         <v>45</v>
       </c>
       <c r="D41" t="n">
-        <v>451.258707314995</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E41" t="n">
-        <v>68.9133399877276</v>
+        <v>36.1298054994703</v>
+      </c>
+      <c r="F41" t="n">
+        <v>7.02775654879838</v>
       </c>
     </row>
     <row r="42">
@@ -1066,10 +1192,13 @@
         <v>45</v>
       </c>
       <c r="D42" t="n">
-        <v>536.510522861359</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E42" t="n">
-        <v>92.0896991842442</v>
+        <v>43.2321633790976</v>
+      </c>
+      <c r="F42" t="n">
+        <v>18.5539397108574</v>
       </c>
     </row>
     <row r="43">
@@ -1083,10 +1212,13 @@
         <v>45</v>
       </c>
       <c r="D43" t="n">
-        <v>639.516848239485</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E43" t="n">
-        <v>119.779793164278</v>
+        <v>51.5289668448271</v>
+      </c>
+      <c r="F43" t="n">
+        <v>32.1251564093108</v>
       </c>
     </row>
     <row r="44">
@@ -1100,10 +1232,13 @@
         <v>45</v>
       </c>
       <c r="D44" t="n">
-        <v>536.873324618945</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E44" t="n">
-        <v>87.3736868561901</v>
+        <v>43.0117514591505</v>
+      </c>
+      <c r="F44" t="n">
+        <v>13.7509844632767</v>
       </c>
     </row>
     <row r="45">
@@ -1117,10 +1252,13 @@
         <v>45</v>
       </c>
       <c r="D45" t="n">
-        <v>401.936918066526</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E45" t="n">
-        <v>60.2694833397735</v>
+        <v>31.914694392844</v>
+      </c>
+      <c r="F45" t="n">
+        <v>5.10820428339097</v>
       </c>
     </row>
     <row r="46">
@@ -1134,10 +1272,13 @@
         <v>45</v>
       </c>
       <c r="D46" t="n">
-        <v>264.706834887126</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E46" t="n">
-        <v>37.7856731104968</v>
+        <v>20.8577733905332</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.43373188030508</v>
       </c>
     </row>
     <row r="47">
@@ -1151,10 +1292,13 @@
         <v>45</v>
       </c>
       <c r="D47" t="n">
-        <v>149.647885982983</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E47" t="n">
-        <v>21.4432319503381</v>
+        <v>11.874847173645</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.904635741830793</v>
       </c>
     </row>
     <row r="48">
@@ -1168,10 +1312,13 @@
         <v>45</v>
       </c>
       <c r="D48" t="n">
-        <v>63.4824326567721</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E48" t="n">
-        <v>8.94860922648649</v>
+        <v>5.14543033687342</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.251986541686274</v>
       </c>
     </row>
     <row r="49">
@@ -1185,10 +1332,13 @@
         <v>45</v>
       </c>
       <c r="D49" t="n">
-        <v>33.2998372926136</v>
+        <v>-18.4279763751635</v>
       </c>
       <c r="E49" t="n">
-        <v>5.49112560330865</v>
+        <v>2.7603495464029</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.938433635019399</v>
       </c>
     </row>
     <row r="50">
@@ -1202,10 +1352,13 @@
         <v>50</v>
       </c>
       <c r="D50" t="n">
-        <v>18.6881005293867</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E50" t="n">
-        <v>4.11452974425291</v>
+        <v>2.92756504319931</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3.07947341052168</v>
       </c>
     </row>
     <row r="51">
@@ -1219,10 +1372,13 @@
         <v>50</v>
       </c>
       <c r="D51" t="n">
-        <v>9.19788418204082</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E51" t="n">
-        <v>2.5487138923668</v>
+        <v>1.47470920173741</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2.04150262490171</v>
       </c>
     </row>
     <row r="52">
@@ -1236,10 +1392,13 @@
         <v>50</v>
       </c>
       <c r="D52" t="n">
-        <v>6.11088127035046</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E52" t="n">
-        <v>2.03420015905212</v>
+        <v>1.00719967187401</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.69902132147517</v>
       </c>
     </row>
     <row r="53">
@@ -1253,10 +1412,13 @@
         <v>50</v>
       </c>
       <c r="D53" t="n">
-        <v>5.91065821829787</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E53" t="n">
-        <v>1.9196989166188</v>
+        <v>0.994499901591751</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.5968354702726</v>
       </c>
     </row>
     <row r="54">
@@ -1270,10 +1432,13 @@
         <v>50</v>
       </c>
       <c r="D54" t="n">
-        <v>13.2742376312024</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E54" t="n">
-        <v>1.69140545593849</v>
+        <v>2.30021904390048</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.970698506912174</v>
       </c>
     </row>
     <row r="55">
@@ -1287,10 +1452,13 @@
         <v>50</v>
       </c>
       <c r="D55" t="n">
-        <v>66.1465981845387</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E55" t="n">
-        <v>4.2546268172262</v>
+        <v>11.7421717685875</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.681674223439224</v>
       </c>
     </row>
     <row r="56">
@@ -1304,10 +1472,13 @@
         <v>50</v>
       </c>
       <c r="D56" t="n">
-        <v>187.874992671825</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E56" t="n">
-        <v>8.1801828578795</v>
+        <v>34.1296645631725</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-1.91687734543105</v>
       </c>
     </row>
     <row r="57">
@@ -1321,10 +1492,13 @@
         <v>50</v>
       </c>
       <c r="D57" t="n">
-        <v>365.910083416118</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E57" t="n">
-        <v>16.5324126363544</v>
+        <v>64.7473397254946</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-3.24612887411952</v>
       </c>
     </row>
     <row r="58">
@@ -1338,10 +1512,13 @@
         <v>50</v>
       </c>
       <c r="D58" t="n">
-        <v>418.533141707982</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E58" t="n">
-        <v>33.5995088803434</v>
+        <v>68.7474210373524</v>
+      </c>
+      <c r="F58" t="n">
+        <v>10.62770529244</v>
       </c>
     </row>
     <row r="59">
@@ -1355,10 +1532,13 @@
         <v>50</v>
       </c>
       <c r="D59" t="n">
-        <v>332.850357182999</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E59" t="n">
-        <v>27.1678981726957</v>
+        <v>52.2884551370091</v>
+      </c>
+      <c r="F59" t="n">
+        <v>8.74229493282556</v>
       </c>
     </row>
     <row r="60">
@@ -1372,10 +1552,13 @@
         <v>50</v>
       </c>
       <c r="D60" t="n">
-        <v>311.9722185763</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E60" t="n">
-        <v>20.2622472850388</v>
+        <v>47.7055042738299</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2.9068130948213</v>
       </c>
     </row>
     <row r="61">
@@ -1389,10 +1572,13 @@
         <v>50</v>
       </c>
       <c r="D61" t="n">
-        <v>338.279385341369</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E61" t="n">
-        <v>22.6010976798153</v>
+        <v>50.4019589255043</v>
+      </c>
+      <c r="F61" t="n">
+        <v>3.69505519089554</v>
       </c>
     </row>
     <row r="62">
@@ -1406,10 +1592,13 @@
         <v>50</v>
       </c>
       <c r="D62" t="n">
-        <v>386.473060358322</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E62" t="n">
-        <v>24.4928252747798</v>
+        <v>56.6703642607456</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2.83338548121406</v>
       </c>
     </row>
     <row r="63">
@@ -1423,10 +1612,13 @@
         <v>50</v>
       </c>
       <c r="D63" t="n">
-        <v>399.68587365255</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E63" t="n">
-        <v>24.2894129259077</v>
+        <v>58.2289478497308</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.86459404469977</v>
       </c>
     </row>
     <row r="64">
@@ -1440,10 +1632,13 @@
         <v>50</v>
       </c>
       <c r="D64" t="n">
-        <v>427.143461743431</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E64" t="n">
-        <v>29.1772981279095</v>
+        <v>62.6261206664837</v>
+      </c>
+      <c r="F64" t="n">
+        <v>5.23801110512879</v>
       </c>
     </row>
     <row r="65">
@@ -1457,10 +1652,13 @@
         <v>50</v>
       </c>
       <c r="D65" t="n">
-        <v>486.810610980333</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E65" t="n">
-        <v>36.088557700928</v>
+        <v>71.8496892807227</v>
+      </c>
+      <c r="F65" t="n">
+        <v>8.83644240113037</v>
       </c>
     </row>
     <row r="66">
@@ -1474,10 +1672,13 @@
         <v>50</v>
       </c>
       <c r="D66" t="n">
-        <v>578.778893786982</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E66" t="n">
-        <v>52.5958714540033</v>
+        <v>85.9738230743354</v>
+      </c>
+      <c r="F66" t="n">
+        <v>20.2314248155607</v>
       </c>
     </row>
     <row r="67">
@@ -1491,10 +1692,13 @@
         <v>50</v>
       </c>
       <c r="D67" t="n">
-        <v>689.900455275571</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E67" t="n">
-        <v>72.2280271894842</v>
+        <v>102.473296093769</v>
+      </c>
+      <c r="F67" t="n">
+        <v>33.6493759596615</v>
       </c>
     </row>
     <row r="68">
@@ -1508,10 +1712,13 @@
         <v>50</v>
       </c>
       <c r="D68" t="n">
-        <v>579.170278468124</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E68" t="n">
-        <v>47.8514780129746</v>
+        <v>85.5354999850455</v>
+      </c>
+      <c r="F68" t="n">
+        <v>15.432541202946</v>
       </c>
     </row>
     <row r="69">
@@ -1525,10 +1732,13 @@
         <v>50</v>
       </c>
       <c r="D69" t="n">
-        <v>433.603060700466</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E69" t="n">
-        <v>31.3030265530447</v>
+        <v>63.4672908950115</v>
+      </c>
+      <c r="F69" t="n">
+        <v>6.99475522473988</v>
       </c>
     </row>
     <row r="70">
@@ -1542,10 +1752,13 @@
         <v>50</v>
       </c>
       <c r="D70" t="n">
-        <v>285.561461603269</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E70" t="n">
-        <v>19.5543972118856</v>
+        <v>41.478898557024</v>
+      </c>
+      <c r="F70" t="n">
+        <v>3.52453559609324</v>
       </c>
     </row>
     <row r="71">
@@ -1559,10 +1772,13 @@
         <v>50</v>
       </c>
       <c r="D71" t="n">
-        <v>161.437724361603</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E71" t="n">
-        <v>12.2127421816012</v>
+        <v>23.6149646500304</v>
+      </c>
+      <c r="F71" t="n">
+        <v>3.16137965037235</v>
       </c>
     </row>
     <row r="72">
@@ -1576,10 +1792,13 @@
         <v>50</v>
       </c>
       <c r="D72" t="n">
-        <v>68.483823862459</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E72" t="n">
-        <v>6.45863659752491</v>
+        <v>10.2324816258803</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2.63304191623012</v>
       </c>
     </row>
     <row r="73">
@@ -1593,10 +1812,13 @@
         <v>50</v>
       </c>
       <c r="D73" t="n">
-        <v>35.9233270742125</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E73" t="n">
-        <v>5.36226515471</v>
+        <v>5.48938070585905</v>
+      </c>
+      <c r="F73" t="n">
+        <v>3.36354823442463</v>
       </c>
     </row>
     <row r="74">
@@ -1610,10 +1832,13 @@
         <v>50</v>
       </c>
       <c r="D74" t="n">
-        <v>19.0695734235762</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E74" t="n">
-        <v>3.25391039112667</v>
+        <v>2.8370571694212</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.834038552098</v>
       </c>
     </row>
     <row r="75">
@@ -1627,10 +1852,13 @@
         <v>50</v>
       </c>
       <c r="D75" t="n">
-        <v>9.38563699800123</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E75" t="n">
-        <v>0.867715883796954</v>
+        <v>1.42911745831899</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-0.31840691252737</v>
       </c>
     </row>
     <row r="76">
@@ -1644,10 +1872,13 @@
         <v>50</v>
       </c>
       <c r="D76" t="n">
-        <v>6.23562030204519</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0863471910849218</v>
+        <v>0.976061336969009</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0.697724632779156</v>
       </c>
     </row>
     <row r="77">
@@ -1661,10 +1892,13 @@
         <v>50</v>
       </c>
       <c r="D77" t="n">
-        <v>6.0313101750633</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.0454622677493497</v>
+        <v>0.963754189630645</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0.800911135309284</v>
       </c>
     </row>
     <row r="78">
@@ -1678,10 +1912,13 @@
         <v>50</v>
       </c>
       <c r="D78" t="n">
-        <v>13.5451994573855</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E78" t="n">
-        <v>0.362786491147916</v>
+        <v>2.22910604322745</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-1.32416674222584</v>
       </c>
     </row>
     <row r="79">
@@ -1695,10 +1932,13 @@
         <v>50</v>
       </c>
       <c r="D79" t="n">
-        <v>67.4968228481193</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E79" t="n">
-        <v>7.49654180796623</v>
+        <v>11.3791537025052</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.869232487971384</v>
       </c>
     </row>
     <row r="80">
@@ -1712,10 +1952,13 @@
         <v>50</v>
       </c>
       <c r="D80" t="n">
-        <v>191.710011489691</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E80" t="n">
-        <v>21.9448691895193</v>
+        <v>33.074520330067</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-1.70380928504525</v>
       </c>
     </row>
     <row r="81">
@@ -1729,10 +1972,13 @@
         <v>50</v>
       </c>
       <c r="D81" t="n">
-        <v>373.379262978504</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E81" t="n">
-        <v>45.6872842936883</v>
+        <v>62.7456270513538</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.6206063663801</v>
       </c>
     </row>
     <row r="82">
@@ -1746,10 +1992,13 @@
         <v>50</v>
       </c>
       <c r="D82" t="n">
-        <v>427.07649519811</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E82" t="n">
-        <v>67.3033636405634</v>
+        <v>66.6220428428445</v>
+      </c>
+      <c r="F82" t="n">
+        <v>13.5684056802571</v>
       </c>
     </row>
     <row r="83">
@@ -1763,10 +2012,13 @@
         <v>50</v>
       </c>
       <c r="D83" t="n">
-        <v>339.644701471065</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E83" t="n">
-        <v>53.4649325833534</v>
+        <v>50.6719182444859</v>
+      </c>
+      <c r="F83" t="n">
+        <v>10.3861461877605</v>
       </c>
     </row>
     <row r="84">
@@ -1780,10 +2032,13 @@
         <v>50</v>
       </c>
       <c r="D84" t="n">
-        <v>318.340385578607</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E84" t="n">
-        <v>44.7544778164763</v>
+        <v>46.2306527519596</v>
+      </c>
+      <c r="F84" t="n">
+        <v>4.18956050587311</v>
       </c>
     </row>
     <row r="85">
@@ -1797,10 +2052,13 @@
         <v>50</v>
       </c>
       <c r="D85" t="n">
-        <v>345.184550259972</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E85" t="n">
-        <v>49.3674426581056</v>
+        <v>48.8437444813211</v>
+      </c>
+      <c r="F85" t="n">
+        <v>5.19026399824971</v>
       </c>
     </row>
     <row r="86">
@@ -1814,10 +2072,13 @@
         <v>50</v>
       </c>
       <c r="D86" t="n">
-        <v>394.36198393455</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E86" t="n">
-        <v>55.4252567640854</v>
+        <v>54.918357354055</v>
+      </c>
+      <c r="F86" t="n">
+        <v>4.82249992472924</v>
       </c>
     </row>
     <row r="87">
@@ -1831,10 +2092,13 @@
         <v>50</v>
       </c>
       <c r="D87" t="n">
-        <v>407.844505223971</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E87" t="n">
-        <v>56.3640217490291</v>
+        <v>56.4287561598969</v>
+      </c>
+      <c r="F87" t="n">
+        <v>3.97651375970882</v>
       </c>
     </row>
     <row r="88">
@@ -1848,10 +2112,13 @@
         <v>50</v>
       </c>
       <c r="D88" t="n">
-        <v>435.862574332172</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E88" t="n">
-        <v>63.6254691940057</v>
+        <v>60.68998707394</v>
+      </c>
+      <c r="F88" t="n">
+        <v>7.69639667887201</v>
       </c>
     </row>
     <row r="89">
@@ -1865,10 +2132,13 @@
         <v>50</v>
       </c>
       <c r="D89" t="n">
-        <v>496.747685772972</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E89" t="n">
-        <v>75.6946360131337</v>
+        <v>69.62840213169</v>
+      </c>
+      <c r="F89" t="n">
+        <v>12.0215794021431</v>
       </c>
     </row>
     <row r="90">
@@ -1882,10 +2152,13 @@
         <v>50</v>
       </c>
       <c r="D90" t="n">
-        <v>590.593281202203</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E90" t="n">
-        <v>100.152117963742</v>
+        <v>83.3158777128447</v>
+      </c>
+      <c r="F90" t="n">
+        <v>24.5294428307188</v>
       </c>
     </row>
     <row r="91">
@@ -1899,10 +2172,13 @@
         <v>50</v>
       </c>
       <c r="D91" t="n">
-        <v>703.983123707435</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E91" t="n">
-        <v>129.39014082261</v>
+        <v>99.3052571222601</v>
+      </c>
+      <c r="F91" t="n">
+        <v>39.2474347798022</v>
       </c>
     </row>
     <row r="92">
@@ -1916,10 +2192,13 @@
         <v>50</v>
       </c>
       <c r="D92" t="n">
-        <v>590.992655065917</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E92" t="n">
-        <v>95.4415576437639</v>
+        <v>82.8911057113204</v>
+      </c>
+      <c r="F92" t="n">
+        <v>19.6960224846477</v>
       </c>
     </row>
     <row r="93">
@@ -1933,10 +2212,13 @@
         <v>50</v>
       </c>
       <c r="D93" t="n">
-        <v>442.454030558787</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E93" t="n">
-        <v>66.3095955431838</v>
+        <v>61.5051518925978</v>
+      </c>
+      <c r="F93" t="n">
+        <v>9.51941901353486</v>
       </c>
     </row>
     <row r="94">
@@ -1950,10 +2232,13 @@
         <v>50</v>
       </c>
       <c r="D94" t="n">
-        <v>291.390516142842</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E94" t="n">
-        <v>41.763558474745</v>
+        <v>40.1965472310389</v>
+      </c>
+      <c r="F94" t="n">
+        <v>4.31667088281527</v>
       </c>
     </row>
     <row r="95">
@@ -1967,10 +2252,13 @@
         <v>50</v>
       </c>
       <c r="D95" t="n">
-        <v>164.733089551166</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E95" t="n">
-        <v>23.6920674807702</v>
+        <v>22.8848902679822</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2.5459643450693</v>
       </c>
     </row>
     <row r="96">
@@ -1984,10 +2272,13 @@
         <v>50</v>
       </c>
       <c r="D96" t="n">
-        <v>69.8817574005894</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E96" t="n">
-        <v>9.90259229934491</v>
+        <v>9.91613676529957</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.963182388199992</v>
       </c>
     </row>
     <row r="97">
@@ -2001,10 +2292,13 @@
         <v>50</v>
       </c>
       <c r="D97" t="n">
-        <v>36.6566159136197</v>
+        <v>-13.4279763751635</v>
       </c>
       <c r="E97" t="n">
-        <v>5.9915393363149</v>
+        <v>5.31967237531315</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1.31996618017104</v>
       </c>
     </row>
     <row r="98">
@@ -2018,10 +2312,13 @@
         <v>55</v>
       </c>
       <c r="D98" t="n">
-        <v>20.5719480621244</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E98" t="n">
-        <v>4.2382494187686</v>
+        <v>4.83595173270773</v>
+      </c>
+      <c r="F98" t="n">
+        <v>3.20480466794725</v>
       </c>
     </row>
     <row r="99">
@@ -2035,10 +2332,13 @@
         <v>55</v>
       </c>
       <c r="D99" t="n">
-        <v>10.1250737268262</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E99" t="n">
-        <v>2.60960607536024</v>
+        <v>2.43602530230668</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2.10463603299461</v>
       </c>
     </row>
     <row r="100">
@@ -2052,10 +2352,13 @@
         <v>55</v>
       </c>
       <c r="D100" t="n">
-        <v>6.72688655060356</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E100" t="n">
-        <v>2.07465564785811</v>
+        <v>1.66376115526332</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1.74214029560277</v>
       </c>
     </row>
     <row r="101">
@@ -2069,10 +2372,13 @@
         <v>55</v>
       </c>
       <c r="D101" t="n">
-        <v>6.50648008279861</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E101" t="n">
-        <v>1.9588288811538</v>
+        <v>1.64278280800365</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1.63941075769982</v>
       </c>
     </row>
     <row r="102">
@@ -2086,10 +2392,13 @@
         <v>55</v>
       </c>
       <c r="D102" t="n">
-        <v>14.6123425804557</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E102" t="n">
-        <v>1.77928406920868</v>
+        <v>3.79965879726503</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1.06917261111558</v>
       </c>
     </row>
     <row r="103">
@@ -2103,10 +2412,13 @@
         <v>55</v>
       </c>
       <c r="D103" t="n">
-        <v>72.814483216139</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E103" t="n">
-        <v>4.69253304449863</v>
+        <v>19.3965206825933</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1.1843654125155</v>
       </c>
     </row>
     <row r="104">
@@ -2120,10 +2432,13 @@
         <v>55</v>
       </c>
       <c r="D104" t="n">
-        <v>206.813666554245</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E104" t="n">
-        <v>9.42396003611365</v>
+        <v>56.3777091355886</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-0.455760781974447</v>
       </c>
     </row>
     <row r="105">
@@ -2137,10 +2452,13 @@
         <v>55</v>
       </c>
       <c r="D105" t="n">
-        <v>402.79552325862</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E105" t="n">
-        <v>18.9548244995112</v>
+        <v>106.954074499927</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-0.474246650150826</v>
       </c>
     </row>
     <row r="106">
@@ -2154,10 +2472,13 @@
         <v>55</v>
       </c>
       <c r="D106" t="n">
-        <v>460.723230804289</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E106" t="n">
-        <v>36.3702979171809</v>
+        <v>113.561681800058</v>
+      </c>
+      <c r="F106" t="n">
+        <v>13.5708340005079</v>
       </c>
     </row>
     <row r="107">
@@ -2171,10 +2492,13 @@
         <v>55</v>
       </c>
       <c r="D107" t="n">
-        <v>366.403222717089</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E107" t="n">
-        <v>29.3714467777751</v>
+        <v>86.3736386687052</v>
+      </c>
+      <c r="F107" t="n">
+        <v>10.9808029538121</v>
       </c>
     </row>
     <row r="108">
@@ -2188,10 +2512,13 @@
         <v>55</v>
       </c>
       <c r="D108" t="n">
-        <v>343.420470544098</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E108" t="n">
-        <v>22.3275776421559</v>
+        <v>78.803207665237</v>
+      </c>
+      <c r="F108" t="n">
+        <v>4.94912154861595</v>
       </c>
     </row>
     <row r="109">
@@ -2205,10 +2532,13 @@
         <v>55</v>
       </c>
       <c r="D109" t="n">
-        <v>372.37952218777</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E109" t="n">
-        <v>24.8405877437729</v>
+        <v>83.257395480884</v>
+      </c>
+      <c r="F109" t="n">
+        <v>5.85280089274396</v>
       </c>
     </row>
     <row r="110">
@@ -2222,10 +2552,13 @@
         <v>55</v>
       </c>
       <c r="D110" t="n">
-        <v>425.431344004152</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E110" t="n">
-        <v>27.0513689406504</v>
+        <v>93.6119752066847</v>
+      </c>
+      <c r="F110" t="n">
+        <v>5.25948632159096</v>
       </c>
     </row>
     <row r="111">
@@ -2239,10 +2572,13 @@
         <v>55</v>
       </c>
       <c r="D111" t="n">
-        <v>439.976070388515</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E111" t="n">
-        <v>26.9354285613147</v>
+        <v>96.1865499459316</v>
+      </c>
+      <c r="F111" t="n">
+        <v>4.35741901865797</v>
       </c>
     </row>
     <row r="112">
@@ -2256,10 +2592,13 @@
         <v>55</v>
       </c>
       <c r="D112" t="n">
-        <v>470.201511183239</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E112" t="n">
-        <v>32.0050895332108</v>
+        <v>103.45010009372</v>
+      </c>
+      <c r="F112" t="n">
+        <v>7.9190823486349</v>
       </c>
     </row>
     <row r="113">
@@ -2273,10 +2612,13 @@
         <v>55</v>
       </c>
       <c r="D113" t="n">
-        <v>535.883386833812</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E113" t="n">
-        <v>39.3113598389284</v>
+        <v>118.686220201587</v>
+      </c>
+      <c r="F113" t="n">
+        <v>11.912381541785</v>
       </c>
     </row>
     <row r="114">
@@ -2290,10 +2632,13 @@
         <v>55</v>
       </c>
       <c r="D114" t="n">
-        <v>637.122500690571</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E114" t="n">
-        <v>56.4275255187531</v>
+        <v>142.017428316292</v>
+      </c>
+      <c r="F114" t="n">
+        <v>23.9120287278871</v>
       </c>
     </row>
     <row r="115">
@@ -2307,10 +2652,13 @@
         <v>55</v>
       </c>
       <c r="D115" t="n">
-        <v>759.445632885347</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E115" t="n">
-        <v>76.7953324456126</v>
+        <v>169.272383871403</v>
+      </c>
+      <c r="F115" t="n">
+        <v>38.036334699249</v>
       </c>
     </row>
     <row r="116">
@@ -2324,10 +2672,13 @@
         <v>55</v>
       </c>
       <c r="D116" t="n">
-        <v>637.553338769599</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E116" t="n">
-        <v>51.6857231374893</v>
+        <v>141.293376323643</v>
+      </c>
+      <c r="F116" t="n">
+        <v>19.0943801747403</v>
       </c>
     </row>
     <row r="117">
@@ -2341,10 +2692,13 @@
         <v>55</v>
       </c>
       <c r="D117" t="n">
-        <v>477.312267786743</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E117" t="n">
-        <v>34.1735820412558</v>
+        <v>104.839602483633</v>
+      </c>
+      <c r="F117" t="n">
+        <v>9.71183759725412</v>
       </c>
     </row>
     <row r="118">
@@ -2358,10 +2712,13 @@
         <v>55</v>
       </c>
       <c r="D118" t="n">
-        <v>314.347386317254</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E118" t="n">
-        <v>21.4448820703241</v>
+        <v>68.517675401821</v>
+      </c>
+      <c r="F118" t="n">
+        <v>5.3002783844065</v>
       </c>
     </row>
     <row r="119">
@@ -2375,10 +2732,13 @@
         <v>55</v>
       </c>
       <c r="D119" t="n">
-        <v>177.711398524002</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E119" t="n">
-        <v>13.2814983497931</v>
+        <v>39.0088102337583</v>
+      </c>
+      <c r="F119" t="n">
+        <v>4.17235401643258</v>
       </c>
     </row>
     <row r="120">
@@ -2392,10 +2752,13 @@
         <v>55</v>
       </c>
       <c r="D120" t="n">
-        <v>75.3873121229631</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E120" t="n">
-        <v>6.91201581520036</v>
+        <v>16.9027114746865</v>
+      </c>
+      <c r="F120" t="n">
+        <v>3.07110213686797</v>
       </c>
     </row>
     <row r="121">
@@ -2409,10 +2772,13 @@
         <v>55</v>
       </c>
       <c r="D121" t="n">
-        <v>39.5445656784286</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E121" t="n">
-        <v>5.60008613208294</v>
+        <v>9.06773367773956</v>
+      </c>
+      <c r="F121" t="n">
+        <v>3.59855274370142</v>
       </c>
     </row>
     <row r="122">
@@ -2426,10 +2792,13 @@
         <v>55</v>
       </c>
       <c r="D122" t="n">
-        <v>20.9918751999326</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E122" t="n">
-        <v>3.54047865090148</v>
+        <v>4.68644465000851</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1.10973707065515</v>
       </c>
     </row>
     <row r="123">
@@ -2443,10 +2812,13 @@
         <v>55</v>
       </c>
       <c r="D123" t="n">
-        <v>10.3317529006877</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E123" t="n">
-        <v>1.00875866444301</v>
+        <v>2.36071374907796</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-0.179528651507664</v>
       </c>
     </row>
     <row r="124">
@@ -2460,10 +2832,13 @@
         <v>55</v>
       </c>
       <c r="D124" t="n">
-        <v>6.86419985739516</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E124" t="n">
-        <v>0.180053055336941</v>
+        <v>1.61232472860312</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-0.602873296146357</v>
       </c>
     </row>
     <row r="125">
@@ -2477,10 +2852,13 @@
         <v>55</v>
       </c>
       <c r="D125" t="n">
-        <v>6.63929431848133</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0451733234429075</v>
+        <v>1.59199494271709</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-0.707255778202531</v>
       </c>
     </row>
     <row r="126">
@@ -2494,10 +2872,13 @@
         <v>55</v>
       </c>
       <c r="D126" t="n">
-        <v>14.9106186201362</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E126" t="n">
-        <v>0.5663371501263</v>
+        <v>3.68218948958163</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-1.10754747898061</v>
       </c>
     </row>
     <row r="127">
@@ -2511,10 +2892,13 @@
         <v>55</v>
       </c>
       <c r="D127" t="n">
-        <v>74.3008168115572</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E127" t="n">
-        <v>8.51085118103277</v>
+        <v>18.796862666539</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.236566807167547</v>
       </c>
     </row>
     <row r="128">
@@ -2528,10 +2912,13 @@
         <v>55</v>
       </c>
       <c r="D128" t="n">
-        <v>211.035273122251</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E128" t="n">
-        <v>24.82579385174</v>
+        <v>54.6347498820628</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1.51029452480084</v>
       </c>
     </row>
     <row r="129">
@@ -2545,10 +2932,13 @@
         <v>55</v>
       </c>
       <c r="D129" t="n">
-        <v>411.01763089243</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E129" t="n">
-        <v>51.2982459681359</v>
+        <v>103.647508896071</v>
+      </c>
+      <c r="F129" t="n">
+        <v>5.47686555292104</v>
       </c>
     </row>
     <row r="130">
@@ -2562,10 +2952,13 @@
         <v>55</v>
       </c>
       <c r="D130" t="n">
-        <v>470.127794098398</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E130" t="n">
-        <v>73.7212611625046</v>
+        <v>110.050837049993</v>
+      </c>
+      <c r="F130" t="n">
+        <v>20.0425785354945</v>
       </c>
     </row>
     <row r="131">
@@ -2579,10 +2972,13 @@
         <v>55</v>
       </c>
       <c r="D131" t="n">
-        <v>373.882468539343</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E131" t="n">
-        <v>58.5689477010677</v>
+        <v>83.7033327075983</v>
+      </c>
+      <c r="F131" t="n">
+        <v>15.31032358645</v>
       </c>
     </row>
     <row r="132">
@@ -2596,10 +2992,13 @@
         <v>55</v>
       </c>
       <c r="D132" t="n">
-        <v>350.430578426191</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E132" t="n">
-        <v>49.5383420532356</v>
+        <v>76.3669472688219</v>
+      </c>
+      <c r="F132" t="n">
+        <v>8.68214620806592</v>
       </c>
     </row>
     <row r="133">
@@ -2613,10 +3012,13 @@
         <v>55</v>
       </c>
       <c r="D133" t="n">
-        <v>379.980759876027</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E133" t="n">
-        <v>54.5547079247137</v>
+        <v>80.6834305202138</v>
+      </c>
+      <c r="F133" t="n">
+        <v>9.93678378622829</v>
       </c>
     </row>
     <row r="134">
@@ -2630,10 +3032,13 @@
         <v>55</v>
       </c>
       <c r="D134" t="n">
-        <v>434.115507802449</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E134" t="n">
-        <v>61.3515365474467</v>
+        <v>90.7178906309012</v>
+      </c>
+      <c r="F134" t="n">
+        <v>10.1593362519274</v>
       </c>
     </row>
     <row r="135">
@@ -2647,10 +3052,13 @@
         <v>55</v>
       </c>
       <c r="D135" t="n">
-        <v>448.957130003502</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E135" t="n">
-        <v>62.4929102943939</v>
+        <v>93.2128704569373</v>
+      </c>
+      <c r="F135" t="n">
+        <v>9.46012707740597</v>
       </c>
     </row>
     <row r="136">
@@ -2664,10 +3072,13 @@
         <v>55</v>
       </c>
       <c r="D136" t="n">
-        <v>479.799550911318</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E136" t="n">
-        <v>70.1753996330849</v>
+        <v>100.251862492351</v>
+      </c>
+      <c r="F136" t="n">
+        <v>13.5941063577191</v>
       </c>
     </row>
     <row r="137">
@@ -2681,10 +3092,13 @@
         <v>55</v>
       </c>
       <c r="D137" t="n">
-        <v>546.822165025965</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E137" t="n">
-        <v>83.159518247108</v>
+        <v>115.016946495044</v>
+      </c>
+      <c r="F137" t="n">
+        <v>18.7879031562481</v>
       </c>
     </row>
     <row r="138">
@@ -2698,10 +3112,13 @@
         <v>55</v>
       </c>
       <c r="D138" t="n">
-        <v>650.127833357183</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E138" t="n">
-        <v>109.027266089476</v>
+        <v>137.626852774272</v>
+      </c>
+      <c r="F138" t="n">
+        <v>32.6258831510971</v>
       </c>
     </row>
     <row r="139">
@@ -2715,10 +3132,13 @@
         <v>55</v>
       </c>
       <c r="D139" t="n">
-        <v>774.947899854687</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E139" t="n">
-        <v>139.969256264294</v>
+        <v>164.039200892551</v>
+      </c>
+      <c r="F139" t="n">
+        <v>48.8976852466018</v>
       </c>
     </row>
     <row r="140">
@@ -2732,10 +3152,13 @@
         <v>55</v>
       </c>
       <c r="D140" t="n">
-        <v>650.567465965579</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E140" t="n">
-        <v>104.32270736537</v>
+        <v>136.925185393201</v>
+      </c>
+      <c r="F140" t="n">
+        <v>27.7511844646361</v>
       </c>
     </row>
     <row r="141">
@@ -2749,10 +3172,13 @@
         <v>55</v>
       </c>
       <c r="D141" t="n">
-        <v>487.055456611016</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E141" t="n">
-        <v>72.9585791754461</v>
+        <v>101.598407371477</v>
+      </c>
+      <c r="F141" t="n">
+        <v>15.4963444851781</v>
       </c>
     </row>
     <row r="142">
@@ -2766,10 +3192,13 @@
         <v>55</v>
       </c>
       <c r="D142" t="n">
-        <v>320.76403669062</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E142" t="n">
-        <v>46.1424332020999</v>
+        <v>66.399399966321</v>
+      </c>
+      <c r="F142" t="n">
+        <v>8.22287645461588</v>
       </c>
     </row>
     <row r="143">
@@ -2783,10 +3212,13 @@
         <v>55</v>
       </c>
       <c r="D143" t="n">
-        <v>181.338951865704</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E143" t="n">
-        <v>26.1675961017534</v>
+        <v>37.8028235448979</v>
+      </c>
+      <c r="F143" t="n">
+        <v>4.7698639591588</v>
       </c>
     </row>
     <row r="144">
@@ -2800,10 +3232,13 @@
         <v>55</v>
       </c>
       <c r="D144" t="n">
-        <v>76.9261638695865</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E144" t="n">
-        <v>10.9527413070586</v>
+        <v>16.3801514447351</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1.92680915098424</v>
       </c>
     </row>
     <row r="145">
@@ -2817,10 +3252,13 @@
         <v>55</v>
       </c>
       <c r="D145" t="n">
-        <v>40.3517734465536</v>
+        <v>-8.42797637516347</v>
       </c>
       <c r="E145" t="n">
-        <v>6.54239710320193</v>
+        <v>8.78739787544378</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1.83691938396652</v>
       </c>
     </row>
     <row r="146">
@@ -2834,10 +3272,13 @@
         <v>60</v>
       </c>
       <c r="D146" t="n">
-        <v>22.6456961961042</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E146" t="n">
-        <v>4.37444061243206</v>
+        <v>6.9338456440155</v>
+      </c>
+      <c r="F146" t="n">
+        <v>3.34258160974585</v>
       </c>
     </row>
     <row r="147">
@@ -2851,10 +3292,13 @@
         <v>60</v>
       </c>
       <c r="D147" t="n">
-        <v>11.1457282941042</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E147" t="n">
-        <v>2.67663647387295</v>
+        <v>3.4928023199382</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2.17403873485076</v>
       </c>
     </row>
     <row r="148">
@@ -2868,10 +3312,13 @@
         <v>60</v>
       </c>
       <c r="D148" t="n">
-        <v>7.40498803081737</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E148" t="n">
-        <v>2.11918923826961</v>
+        <v>2.38552071582514</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1.78954108380856</v>
       </c>
     </row>
     <row r="149">
@@ -2885,10 +3332,13 @@
         <v>60</v>
       </c>
       <c r="D149" t="n">
-        <v>7.16236356499165</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E149" t="n">
-        <v>2.00190332827703</v>
+        <v>2.35544170970494</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1.68621386985564</v>
       </c>
     </row>
     <row r="150">
@@ -2902,10 +3352,13 @@
         <v>60</v>
       </c>
       <c r="D150" t="n">
-        <v>16.0853347379211</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E150" t="n">
-        <v>1.87602125580092</v>
+        <v>5.44799639375424</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1.17742542212373</v>
       </c>
     </row>
     <row r="151">
@@ -2919,10 +3372,13 @@
         <v>60</v>
       </c>
       <c r="D151" t="n">
-        <v>80.1545221001658</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E151" t="n">
-        <v>5.17458225808047</v>
+        <v>27.8109641861027</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1.73697500187647</v>
       </c>
     </row>
     <row r="152">
@@ -2936,10 +3392,13 @@
         <v>60</v>
       </c>
       <c r="D152" t="n">
-        <v>227.661446929892</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E152" t="n">
-        <v>10.7931157441137</v>
+        <v>80.83503610374</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1.150448043018</v>
       </c>
     </row>
     <row r="153">
@@ -2953,10 +3412,13 @@
         <v>60</v>
       </c>
       <c r="D153" t="n">
-        <v>443.39918715134</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E153" t="n">
-        <v>21.6214267556139</v>
+        <v>153.352035870257</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2.57288990372236</v>
       </c>
     </row>
     <row r="154">
@@ -2970,10 +3432,13 @@
         <v>60</v>
       </c>
       <c r="D154" t="n">
-        <v>507.166277290518</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E154" t="n">
-        <v>39.420395387884</v>
+        <v>162.826102533392</v>
+      </c>
+      <c r="F154" t="n">
+        <v>16.8062222112909</v>
       </c>
     </row>
     <row r="155">
@@ -2987,10 +3452,13 @@
         <v>60</v>
       </c>
       <c r="D155" t="n">
-        <v>403.338373296858</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E155" t="n">
-        <v>31.7971233405043</v>
+        <v>123.843559932604</v>
+      </c>
+      <c r="F155" t="n">
+        <v>13.4416000100161</v>
       </c>
     </row>
     <row r="156">
@@ -3004,10 +3472,13 @@
         <v>60</v>
       </c>
       <c r="D156" t="n">
-        <v>378.03885271241</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E156" t="n">
-        <v>24.601102914076</v>
+        <v>112.988985086108</v>
+      </c>
+      <c r="F156" t="n">
+        <v>7.19423596582655</v>
       </c>
     </row>
     <row r="157">
@@ -3021,10 +3492,13 @@
         <v>60</v>
       </c>
       <c r="D157" t="n">
-        <v>409.917111575861</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E157" t="n">
-        <v>27.3058288317549</v>
+        <v>119.375453043235</v>
+      </c>
+      <c r="F157" t="n">
+        <v>8.22481574431701</v>
       </c>
     </row>
     <row r="158">
@@ -3038,10 +3512,13 @@
         <v>60</v>
       </c>
       <c r="D158" t="n">
-        <v>468.316804005358</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E158" t="n">
-        <v>29.8678257189197</v>
+        <v>134.221973748096</v>
+      </c>
+      <c r="F158" t="n">
+        <v>7.92650459898024</v>
       </c>
     </row>
     <row r="159">
@@ -3055,10 +3532,13 @@
         <v>60</v>
       </c>
       <c r="D159" t="n">
-        <v>484.327706519845</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E159" t="n">
-        <v>29.8481748908609</v>
+        <v>137.913429913835</v>
+      </c>
+      <c r="F159" t="n">
+        <v>7.09778729075589</v>
       </c>
     </row>
     <row r="160">
@@ -3072,10 +3552,13 @@
         <v>60</v>
       </c>
       <c r="D160" t="n">
-        <v>517.600012456241</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E160" t="n">
-        <v>35.1179354764837</v>
+        <v>148.32799530573</v>
+      </c>
+      <c r="F160" t="n">
+        <v>10.8663901811909</v>
       </c>
     </row>
     <row r="161">
@@ -3089,10 +3572,13 @@
         <v>60</v>
       </c>
       <c r="D161" t="n">
-        <v>589.90292694355</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E161" t="n">
-        <v>42.859035435664</v>
+        <v>170.173727207293</v>
+      </c>
+      <c r="F161" t="n">
+        <v>15.2937685689575</v>
       </c>
     </row>
     <row r="162">
@@ -3106,10 +3592,13 @@
         <v>60</v>
       </c>
       <c r="D162" t="n">
-        <v>701.3474147791</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E162" t="n">
-        <v>60.6454281508646</v>
+        <v>203.626293464645</v>
+      </c>
+      <c r="F162" t="n">
+        <v>27.9581251401368</v>
       </c>
     </row>
     <row r="163">
@@ -3123,10 +3612,13 @@
         <v>60</v>
       </c>
       <c r="D163" t="n">
-        <v>836.001288154314</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E163" t="n">
-        <v>81.8230433338965</v>
+        <v>242.704775901819</v>
+      </c>
+      <c r="F163" t="n">
+        <v>42.8589286103968</v>
       </c>
     </row>
     <row r="164">
@@ -3140,10 +3632,13 @@
         <v>60</v>
       </c>
       <c r="D164" t="n">
-        <v>701.82168334219</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E164" t="n">
-        <v>55.906478020252</v>
+        <v>202.588139026231</v>
+      </c>
+      <c r="F164" t="n">
+        <v>23.119848244367</v>
       </c>
     </row>
     <row r="165">
@@ -3157,10 +3652,13 @@
         <v>60</v>
       </c>
       <c r="D165" t="n">
-        <v>525.427566428334</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E165" t="n">
-        <v>37.333502886077</v>
+        <v>150.320280511656</v>
+      </c>
+      <c r="F165" t="n">
+        <v>12.6987325474005</v>
       </c>
     </row>
     <row r="166">
@@ -3174,10 +3672,13 @@
         <v>60</v>
       </c>
       <c r="D166" t="n">
-        <v>346.035066250543</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E166" t="n">
-        <v>23.5259366033343</v>
+        <v>98.241465461644</v>
+      </c>
+      <c r="F166" t="n">
+        <v>7.25235654766944</v>
       </c>
     </row>
     <row r="167">
@@ -3191,10 +3692,13 @@
         <v>60</v>
       </c>
       <c r="D167" t="n">
-        <v>195.625534801382</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E167" t="n">
-        <v>14.4579901151572</v>
+        <v>55.9313003660037</v>
+      </c>
+      <c r="F167" t="n">
+        <v>5.28372048042333</v>
       </c>
     </row>
     <row r="168">
@@ -3208,10 +3712,13 @@
         <v>60</v>
       </c>
       <c r="D168" t="n">
-        <v>82.9867041381791</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E168" t="n">
-        <v>7.41109776864982</v>
+        <v>24.2353106086903</v>
+      </c>
+      <c r="F168" t="n">
+        <v>3.55266275281369</v>
       </c>
     </row>
     <row r="169">
@@ -3225,10 +3732,13 @@
         <v>60</v>
       </c>
       <c r="D169" t="n">
-        <v>43.53084199203</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E169" t="n">
-        <v>5.86188057111148</v>
+        <v>13.0014253941453</v>
+      </c>
+      <c r="F169" t="n">
+        <v>3.8568937454764</v>
       </c>
     </row>
     <row r="170">
@@ -3242,10 +3752,13 @@
         <v>60</v>
       </c>
       <c r="D170" t="n">
-        <v>23.1079539443051</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E170" t="n">
-        <v>3.85593432533294</v>
+        <v>6.71948059419251</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1.41281309115842</v>
       </c>
     </row>
     <row r="171">
@@ -3259,10 +3772,13 @@
         <v>60</v>
       </c>
       <c r="D171" t="n">
-        <v>11.3732416908519</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E171" t="n">
-        <v>1.16401921397963</v>
+        <v>3.38481971089618</v>
+      </c>
+      <c r="F171" t="n">
+        <v>-0.0268594572568368</v>
       </c>
     </row>
     <row r="172">
@@ -3276,10 +3792,13 @@
         <v>60</v>
       </c>
       <c r="D172" t="n">
-        <v>7.55614315817304</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E172" t="n">
-        <v>0.283204906937789</v>
+        <v>2.31177054984863</v>
+      </c>
+      <c r="F172" t="n">
+        <v>-0.498603001925949</v>
       </c>
     </row>
     <row r="173">
@@ -3293,10 +3812,13 @@
         <v>60</v>
       </c>
       <c r="D173" t="n">
-        <v>7.30856609392598</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E173" t="n">
-        <v>0.144945404166417</v>
+        <v>2.28262145881115</v>
+      </c>
+      <c r="F173" t="n">
+        <v>-0.604300227047318</v>
       </c>
     </row>
     <row r="174">
@@ -3310,10 +3832,13 @@
         <v>60</v>
       </c>
       <c r="D174" t="n">
-        <v>16.4136783909764</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E174" t="n">
-        <v>0.790406663126288</v>
+        <v>5.27956749032306</v>
+      </c>
+      <c r="F174" t="n">
+        <v>-0.86941742078408</v>
       </c>
     </row>
     <row r="175">
@@ -3327,10 +3852,13 @@
         <v>60</v>
       </c>
       <c r="D175" t="n">
-        <v>81.7906850413835</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E175" t="n">
-        <v>9.62740766085472</v>
+        <v>26.9511673245263</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1.45217453549327</v>
       </c>
     </row>
     <row r="176">
@@ -3344,10 +3872,13 @@
         <v>60</v>
       </c>
       <c r="D176" t="n">
-        <v>232.308611092947</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E176" t="n">
-        <v>27.997129131583</v>
+        <v>78.3359602039503</v>
+      </c>
+      <c r="F176" t="n">
+        <v>5.04356629307338</v>
       </c>
     </row>
     <row r="177">
@@ -3361,10 +3892,13 @@
         <v>60</v>
       </c>
       <c r="D177" t="n">
-        <v>452.450121511306</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E177" t="n">
-        <v>57.4748187002761</v>
+        <v>148.611042416191</v>
+      </c>
+      <c r="F177" t="n">
+        <v>12.1798305673998</v>
       </c>
     </row>
     <row r="178">
@@ -3378,10 +3912,13 @@
         <v>60</v>
       </c>
       <c r="D178" t="n">
-        <v>517.51886434607</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E178" t="n">
-        <v>80.7861126321229</v>
+        <v>157.792211187371</v>
+      </c>
+      <c r="F178" t="n">
+        <v>27.1596517620192</v>
       </c>
     </row>
     <row r="179">
@@ -3395,10 +3932,13 @@
         <v>60</v>
       </c>
       <c r="D179" t="n">
-        <v>411.571561916393</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E179" t="n">
-        <v>64.1874713035498</v>
+        <v>120.014843191827</v>
+      </c>
+      <c r="F179" t="n">
+        <v>20.7234832147908</v>
       </c>
     </row>
     <row r="180">
@@ -3412,10 +3952,13 @@
         <v>60</v>
       </c>
       <c r="D180" t="n">
-        <v>385.755612103421</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E180" t="n">
-        <v>54.8044420755527</v>
+        <v>109.495845685415</v>
+      </c>
+      <c r="F180" t="n">
+        <v>13.6208560840431</v>
       </c>
     </row>
     <row r="181">
@@ -3429,10 +3972,13 @@
         <v>60</v>
       </c>
       <c r="D181" t="n">
-        <v>418.284589409405</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E181" t="n">
-        <v>60.2648736786553</v>
+        <v>115.684871185339</v>
+      </c>
+      <c r="F181" t="n">
+        <v>15.1546439913144</v>
       </c>
     </row>
     <row r="182">
@@ -3446,10 +3992,13 @@
         <v>60</v>
       </c>
       <c r="D182" t="n">
-        <v>477.876371942218</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E182" t="n">
-        <v>67.8752129217908</v>
+        <v>130.072400543408</v>
+      </c>
+      <c r="F182" t="n">
+        <v>16.0261327968977</v>
       </c>
     </row>
     <row r="183">
@@ -3463,10 +4012,13 @@
         <v>60</v>
       </c>
       <c r="D183" t="n">
-        <v>494.214098753866</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E183" t="n">
-        <v>69.2396193371632</v>
+        <v>133.649732567146</v>
+      </c>
+      <c r="F183" t="n">
+        <v>15.4882759082524</v>
       </c>
     </row>
     <row r="184">
@@ -3480,10 +4032,13 @@
         <v>60</v>
       </c>
       <c r="D184" t="n">
-        <v>528.165579271004</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E184" t="n">
-        <v>77.3855935525461</v>
+        <v>143.742323841973</v>
+      </c>
+      <c r="F184" t="n">
+        <v>20.0774722782293</v>
       </c>
     </row>
     <row r="185">
@@ -3497,10 +4052,13 @@
         <v>60</v>
       </c>
       <c r="D185" t="n">
-        <v>601.944384901153</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E185" t="n">
-        <v>91.3768953617973</v>
+        <v>164.912678521728</v>
+      </c>
+      <c r="F185" t="n">
+        <v>26.226138543087</v>
       </c>
     </row>
     <row r="186">
@@ -3514,10 +4072,13 @@
         <v>60</v>
       </c>
       <c r="D186" t="n">
-        <v>715.663745522691</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E186" t="n">
-        <v>118.797070463076</v>
+        <v>197.331033549032</v>
+      </c>
+      <c r="F186" t="n">
+        <v>41.5263187623744</v>
       </c>
     </row>
     <row r="187">
@@ -3531,10 +4092,13 @@
         <v>60</v>
       </c>
       <c r="D187" t="n">
-        <v>853.066255802416</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E187" t="n">
-        <v>151.614795791829</v>
+        <v>235.201375328809</v>
+      </c>
+      <c r="F187" t="n">
+        <v>59.5062279534831</v>
       </c>
     </row>
     <row r="188">
@@ -3548,10 +4112,13 @@
         <v>60</v>
       </c>
       <c r="D188" t="n">
-        <v>716.14769514465</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E188" t="n">
-        <v>114.099118323644</v>
+        <v>196.324974435397</v>
+      </c>
+      <c r="F188" t="n">
+        <v>36.606242700642</v>
       </c>
     </row>
     <row r="189">
@@ -3565,10 +4132,13 @@
         <v>60</v>
       </c>
       <c r="D189" t="n">
-        <v>536.152914043905</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E189" t="n">
-        <v>80.2778113110891</v>
+        <v>145.673016053282</v>
+      </c>
+      <c r="F189" t="n">
+        <v>22.0667925103269</v>
       </c>
     </row>
     <row r="190">
@@ -3582,10 +4152,13 @@
         <v>60</v>
       </c>
       <c r="D190" t="n">
-        <v>353.098544853203</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E190" t="n">
-        <v>50.9627188871026</v>
+        <v>95.20425671493</v>
+      </c>
+      <c r="F190" t="n">
+        <v>12.5169772940573</v>
       </c>
     </row>
     <row r="191">
@@ -3599,10 +4172,13 @@
         <v>60</v>
       </c>
       <c r="D191" t="n">
-        <v>199.618762407405</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E191" t="n">
-        <v>28.8926695321478</v>
+        <v>54.2021421751272</v>
+      </c>
+      <c r="F191" t="n">
+        <v>7.21460195979946</v>
       </c>
     </row>
     <row r="192">
@@ -3616,10 +4192,13 @@
         <v>60</v>
       </c>
       <c r="D192" t="n">
-        <v>84.6806793047331</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E192" t="n">
-        <v>12.1087502235457</v>
+        <v>23.4860577650549</v>
+      </c>
+      <c r="F192" t="n">
+        <v>2.98612628494466</v>
       </c>
     </row>
     <row r="193">
@@ -3633,10 +4212,13 @@
         <v>60</v>
       </c>
       <c r="D193" t="n">
-        <v>44.4194200610048</v>
+        <v>-3.42797637516347</v>
       </c>
       <c r="E193" t="n">
-        <v>7.14878389741882</v>
+        <v>12.5994765557267</v>
+      </c>
+      <c r="F193" t="n">
+        <v>2.40520723916685</v>
       </c>
     </row>
     <row r="194">
@@ -3650,10 +4232,13 @@
         <v>65</v>
       </c>
       <c r="D194" t="n">
-        <v>24.9284877959822</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E194" t="n">
-        <v>4.52436051243247</v>
+        <v>8.7386711476021</v>
+      </c>
+      <c r="F194" t="n">
+        <v>3.46111159690296</v>
       </c>
     </row>
     <row r="195">
@@ -3667,10 +4252,13 @@
         <v>65</v>
       </c>
       <c r="D195" t="n">
-        <v>12.2692695932532</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E195" t="n">
-        <v>2.75042384860472</v>
+        <v>4.40195130156454</v>
+      </c>
+      <c r="F195" t="n">
+        <v>2.23374612312842</v>
       </c>
     </row>
     <row r="196">
@@ -3684,10 +4272,13 @@
         <v>65</v>
       </c>
       <c r="D196" t="n">
-        <v>8.15144529702652</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E196" t="n">
-        <v>2.16821202191339</v>
+        <v>3.00645300193269</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1.83032014846135</v>
       </c>
     </row>
     <row r="197">
@@ -3701,10 +4292,13 @@
         <v>65</v>
       </c>
       <c r="D197" t="n">
-        <v>7.88436315554731</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E197" t="n">
-        <v>2.04931988019628</v>
+        <v>2.96854466701641</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1.7264787517025</v>
       </c>
     </row>
     <row r="198">
@@ -3718,10 +4312,13 @@
         <v>65</v>
       </c>
       <c r="D198" t="n">
-        <v>17.7068113621314</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E198" t="n">
-        <v>1.9825100011457</v>
+        <v>6.86606702002813</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1.27055569581839</v>
       </c>
     </row>
     <row r="199">
@@ -3735,10 +4332,13 @@
         <v>65</v>
       </c>
       <c r="D199" t="n">
-        <v>88.234471074045</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E199" t="n">
-        <v>5.70522427649212</v>
+        <v>35.0499394992802</v>
+      </c>
+      <c r="F199" t="n">
+        <v>2.21238697339198</v>
       </c>
     </row>
     <row r="200">
@@ -3752,10 +4352,13 @@
         <v>65</v>
       </c>
       <c r="D200" t="n">
-        <v>250.610780620814</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E200" t="n">
-        <v>12.3002887213592</v>
+        <v>101.875760433866</v>
+      </c>
+      <c r="F200" t="n">
+        <v>2.53227513913895</v>
       </c>
     </row>
     <row r="201">
@@ -3769,10 +4372,13 @@
         <v>65</v>
       </c>
       <c r="D201" t="n">
-        <v>488.095889388118</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E201" t="n">
-        <v>24.5568349330595</v>
+        <v>193.268365072718</v>
+      </c>
+      <c r="F201" t="n">
+        <v>5.19435218820607</v>
       </c>
     </row>
     <row r="202">
@@ -3786,10 +4392,13 @@
         <v>65</v>
       </c>
       <c r="D202" t="n">
-        <v>558.290999070516</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E202" t="n">
-        <v>42.7779568828605</v>
+        <v>205.208456798159</v>
+      </c>
+      <c r="F202" t="n">
+        <v>19.5896380577026</v>
       </c>
     </row>
     <row r="203">
@@ -3803,10 +4412,13 @@
         <v>65</v>
       </c>
       <c r="D203" t="n">
-        <v>443.996759000581</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E203" t="n">
-        <v>34.4673193930945</v>
+        <v>156.079064859691</v>
+      </c>
+      <c r="F203" t="n">
+        <v>15.5586323643449</v>
       </c>
     </row>
     <row r="204">
@@ -3820,10 +4432,13 @@
         <v>65</v>
       </c>
       <c r="D204" t="n">
-        <v>416.146928963466</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E204" t="n">
-        <v>27.1038101174281</v>
+        <v>142.399129525043</v>
+      </c>
+      <c r="F204" t="n">
+        <v>9.12571578795242</v>
       </c>
     </row>
     <row r="205">
@@ -3837,10 +4452,13 @@
         <v>65</v>
       </c>
       <c r="D205" t="n">
-        <v>451.23866472434</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E205" t="n">
-        <v>30.0195776979294</v>
+        <v>150.447944877631</v>
+      </c>
+      <c r="F205" t="n">
+        <v>10.2654684560342</v>
       </c>
     </row>
     <row r="206">
@@ -3854,10 +4472,13 @@
         <v>65</v>
       </c>
       <c r="D206" t="n">
-        <v>515.525318020885</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E206" t="n">
-        <v>32.9681944519894</v>
+        <v>169.158898190794</v>
+      </c>
+      <c r="F206" t="n">
+        <v>10.2209497945255</v>
       </c>
     </row>
     <row r="207">
@@ -3871,10 +4492,13 @@
         <v>65</v>
       </c>
       <c r="D207" t="n">
-        <v>533.150194044953</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E207" t="n">
-        <v>33.0545396102364</v>
+        <v>173.811211372299</v>
+      </c>
+      <c r="F207" t="n">
+        <v>9.45533574449003</v>
       </c>
     </row>
     <row r="208">
@@ -3888,10 +4512,13 @@
         <v>65</v>
       </c>
       <c r="D208" t="n">
-        <v>569.77650331348</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E208" t="n">
-        <v>38.5445707821804</v>
+        <v>186.9366062509</v>
+      </c>
+      <c r="F208" t="n">
+        <v>13.4019694659421</v>
       </c>
     </row>
     <row r="209">
@@ -3905,10 +4532,13 @@
         <v>65</v>
       </c>
       <c r="D209" t="n">
-        <v>649.367888175427</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E209" t="n">
-        <v>46.7643332481703</v>
+        <v>214.468610403776</v>
+      </c>
+      <c r="F209" t="n">
+        <v>18.2027877101273</v>
       </c>
     </row>
     <row r="210">
@@ -3922,10 +4552,13 @@
         <v>65</v>
       </c>
       <c r="D210" t="n">
-        <v>772.046499196267</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E210" t="n">
-        <v>65.2885150040442</v>
+        <v>256.628616636202</v>
+      </c>
+      <c r="F210" t="n">
+        <v>31.4389961009788</v>
       </c>
     </row>
     <row r="211">
@@ -3939,10 +4572,13 @@
         <v>65</v>
       </c>
       <c r="D211" t="n">
-        <v>920.274109866643</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E211" t="n">
-        <v>87.3575708853997</v>
+        <v>305.878920796138</v>
+      </c>
+      <c r="F211" t="n">
+        <v>47.0078230980382</v>
       </c>
     </row>
     <row r="212">
@@ -3956,10 +4592,13 @@
         <v>65</v>
       </c>
       <c r="D212" t="n">
-        <v>772.568576238396</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E212" t="n">
-        <v>60.5527046442267</v>
+        <v>255.320238759986</v>
+      </c>
+      <c r="F212" t="n">
+        <v>26.5829725695656</v>
       </c>
     </row>
     <row r="213">
@@ -3973,10 +4612,13 @@
         <v>65</v>
       </c>
       <c r="D213" t="n">
-        <v>578.393111165849</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E213" t="n">
-        <v>40.8119584625476</v>
+        <v>189.447467631532</v>
+      </c>
+      <c r="F213" t="n">
+        <v>15.268368768518</v>
       </c>
     </row>
     <row r="214">
@@ -3990,10 +4632,13 @@
         <v>65</v>
       </c>
       <c r="D214" t="n">
-        <v>380.917011837884</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E214" t="n">
-        <v>25.8167711212787</v>
+        <v>123.812946495106</v>
+      </c>
+      <c r="F214" t="n">
+        <v>8.93173625083815</v>
       </c>
     </row>
     <row r="215">
@@ -4007,10 +4652,13 @@
         <v>65</v>
       </c>
       <c r="D215" t="n">
-        <v>215.345499411835</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E215" t="n">
-        <v>15.7530777274336</v>
+        <v>70.4897780898988</v>
+      </c>
+      <c r="F215" t="n">
+        <v>6.23983295457175</v>
       </c>
     </row>
     <row r="216">
@@ -4024,10 +4672,13 @@
         <v>65</v>
       </c>
       <c r="D216" t="n">
-        <v>91.3521502462474</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E216" t="n">
-        <v>7.96048950640086</v>
+        <v>30.5435714093412</v>
+      </c>
+      <c r="F216" t="n">
+        <v>3.96695104284448</v>
       </c>
     </row>
     <row r="217">
@@ -4041,10 +4692,13 @@
         <v>65</v>
       </c>
       <c r="D217" t="n">
-        <v>47.9189535154954</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E217" t="n">
-        <v>6.15006510833501</v>
+        <v>16.3855942001793</v>
+      </c>
+      <c r="F217" t="n">
+        <v>4.07914541707544</v>
       </c>
     </row>
     <row r="218">
@@ -4058,10 +4712,13 @@
         <v>65</v>
       </c>
       <c r="D218" t="n">
-        <v>25.4373432771666</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E218" t="n">
-        <v>4.20318940029906</v>
+        <v>8.46850856076124</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1.67355045656163</v>
       </c>
     </row>
     <row r="219">
@@ -4075,10 +4732,13 @@
         <v>65</v>
       </c>
       <c r="D219" t="n">
-        <v>12.5197173995442</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E219" t="n">
-        <v>1.33493074969947</v>
+        <v>4.2658616684051</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0.10448238701409</v>
       </c>
     </row>
     <row r="220">
@@ -4092,10 +4752,13 @@
         <v>65</v>
       </c>
       <c r="D220" t="n">
-        <v>8.31783756489746</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E220" t="n">
-        <v>0.396754945386465</v>
+        <v>2.91350624761519</v>
+      </c>
+      <c r="F220" t="n">
+        <v>-0.408898901417759</v>
       </c>
     </row>
     <row r="221">
@@ -4109,10 +4772,13 @@
         <v>65</v>
       </c>
       <c r="D221" t="n">
-        <v>8.04530358002003</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E221" t="n">
-        <v>0.254774975099354</v>
+        <v>2.87676987736617</v>
+      </c>
+      <c r="F221" t="n">
+        <v>-0.515727204617928</v>
       </c>
     </row>
     <row r="222">
@@ -4126,10 +4792,13 @@
         <v>65</v>
       </c>
       <c r="D222" t="n">
-        <v>18.0682535839645</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E222" t="n">
-        <v>1.03706342615541</v>
+        <v>6.65379739731066</v>
+      </c>
+      <c r="F222" t="n">
+        <v>-0.664553294963842</v>
       </c>
     </row>
     <row r="223">
@@ -4143,10 +4812,13 @@
         <v>65</v>
       </c>
       <c r="D223" t="n">
-        <v>90.0355668566247</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E223" t="n">
-        <v>10.8565182317876</v>
+        <v>33.9663442748119</v>
+      </c>
+      <c r="F223" t="n">
+        <v>2.49796613563744</v>
       </c>
     </row>
     <row r="224">
@@ -4160,10 +4832,13 @@
         <v>65</v>
       </c>
       <c r="D224" t="n">
-        <v>255.726400565612</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E224" t="n">
-        <v>31.4881497712635</v>
+        <v>98.7261947264133</v>
+      </c>
+      <c r="F224" t="n">
+        <v>8.08325241071201</v>
       </c>
     </row>
     <row r="225">
@@ -4177,10 +4852,13 @@
         <v>65</v>
       </c>
       <c r="D225" t="n">
-        <v>498.059200066704</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E225" t="n">
-        <v>64.2740187178337</v>
+        <v>187.293328298748</v>
+      </c>
+      <c r="F225" t="n">
+        <v>17.9464149225824</v>
       </c>
     </row>
     <row r="226">
@@ -4194,10 +4872,13 @@
         <v>65</v>
       </c>
       <c r="D226" t="n">
-        <v>569.687175096032</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E226" t="n">
-        <v>88.5631340191317</v>
+        <v>198.864283113877</v>
+      </c>
+      <c r="F226" t="n">
+        <v>33.2824948671397</v>
       </c>
     </row>
     <row r="227">
@@ -4211,10 +4892,13 @@
         <v>65</v>
       </c>
       <c r="D227" t="n">
-        <v>453.059891361219</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E227" t="n">
-        <v>70.3723682412738</v>
+        <v>151.253763254679</v>
+      </c>
+      <c r="F227" t="n">
+        <v>25.3804434640937</v>
       </c>
     </row>
     <row r="228">
@@ -4228,10 +4912,13 @@
         <v>65</v>
       </c>
       <c r="D228" t="n">
-        <v>424.641573625195</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E228" t="n">
-        <v>60.6013894955811</v>
+        <v>137.996753403254</v>
+      </c>
+      <c r="F228" t="n">
+        <v>17.8696455442414</v>
       </c>
     </row>
     <row r="229">
@@ -4245,10 +4932,13 @@
         <v>65</v>
       </c>
       <c r="D229" t="n">
-        <v>460.449623276921</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E229" t="n">
-        <v>66.550650723331</v>
+        <v>145.796733579426</v>
+      </c>
+      <c r="F229" t="n">
+        <v>19.6435874605381</v>
       </c>
     </row>
     <row r="230">
@@ -4262,10 +4952,13 @@
         <v>65</v>
       </c>
       <c r="D230" t="n">
-        <v>526.048534908775</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E230" t="n">
-        <v>75.0565062445702</v>
+        <v>163.929223707058</v>
+      </c>
+      <c r="F230" t="n">
+        <v>21.0733584795899</v>
       </c>
     </row>
     <row r="231">
@@ -4279,10 +4972,13 @@
         <v>65</v>
       </c>
       <c r="D231" t="n">
-        <v>544.033180640635</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E231" t="n">
-        <v>76.6664280596369</v>
+        <v>168.437707129704</v>
+      </c>
+      <c r="F231" t="n">
+        <v>20.6743135294519</v>
       </c>
     </row>
     <row r="232">
@@ -4296,10 +4992,13 @@
         <v>65</v>
       </c>
       <c r="D232" t="n">
-        <v>581.407128449429</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E232" t="n">
-        <v>85.32260858496</v>
+        <v>181.157320560094</v>
+      </c>
+      <c r="F232" t="n">
+        <v>25.6551347612319</v>
       </c>
     </row>
     <row r="233">
@@ -4313,10 +5012,13 @@
         <v>65</v>
       </c>
       <c r="D233" t="n">
-        <v>662.623181152181</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E233" t="n">
-        <v>100.422622344294</v>
+        <v>207.838152110498</v>
+      </c>
+      <c r="F233" t="n">
+        <v>32.6252785832422</v>
       </c>
     </row>
     <row r="234">
@@ -4330,10 +5032,13 @@
         <v>65</v>
       </c>
       <c r="D234" t="n">
-        <v>787.805982726132</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E234" t="n">
-        <v>129.55171659925</v>
+        <v>248.694750061208</v>
+      </c>
+      <c r="F234" t="n">
+        <v>49.1833947935689</v>
       </c>
     </row>
     <row r="235">
@@ -4347,10 +5052,13 @@
         <v>65</v>
       </c>
       <c r="D235" t="n">
-        <v>939.059305696821</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E235" t="n">
-        <v>164.434259917633</v>
+        <v>296.422444049665</v>
+      </c>
+      <c r="F235" t="n">
+        <v>68.6327945210611</v>
       </c>
     </row>
     <row r="236">
@@ -4364,10 +5072,13 @@
         <v>65</v>
       </c>
       <c r="D236" t="n">
-        <v>788.338716722933</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E236" t="n">
-        <v>124.861037018983</v>
+        <v>247.426821670461</v>
+      </c>
+      <c r="F236" t="n">
+        <v>44.2242804164412</v>
       </c>
     </row>
     <row r="237">
@@ -4381,10 +5092,13 @@
         <v>65</v>
       </c>
       <c r="D237" t="n">
-        <v>590.199623751161</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E237" t="n">
-        <v>88.3348561194852</v>
+        <v>183.590556773887</v>
+      </c>
+      <c r="F237" t="n">
+        <v>27.7193720339437</v>
       </c>
     </row>
     <row r="238">
@@ -4398,10 +5112,13 @@
         <v>65</v>
       </c>
       <c r="D238" t="n">
-        <v>388.692521966554</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E238" t="n">
-        <v>56.2689118092001</v>
+        <v>119.985176191759</v>
+      </c>
+      <c r="F238" t="n">
+        <v>16.2112073350632</v>
       </c>
     </row>
     <row r="239">
@@ -4415,10 +5132,13 @@
         <v>65</v>
       </c>
       <c r="D239" t="n">
-        <v>219.741262950358</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E239" t="n">
-        <v>31.8924430504566</v>
+        <v>68.3105336174905</v>
+      </c>
+      <c r="F239" t="n">
+        <v>9.31781865219793</v>
       </c>
     </row>
     <row r="240">
@@ -4432,10 +5152,13 @@
         <v>65</v>
       </c>
       <c r="D240" t="n">
-        <v>93.2168859956126</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E240" t="n">
-        <v>13.3812902204238</v>
+        <v>29.5992939415284</v>
+      </c>
+      <c r="F240" t="n">
+        <v>3.89746053757436</v>
       </c>
     </row>
     <row r="241">
@@ -4449,10 +5172,13 @@
         <v>65</v>
       </c>
       <c r="D241" t="n">
-        <v>48.8971043904518</v>
+        <v>1.57202362483653</v>
       </c>
       <c r="E241" t="n">
-        <v>7.81629730342668</v>
+        <v>15.879021239454</v>
+      </c>
+      <c r="F241" t="n">
+        <v>2.89410727787505</v>
       </c>
     </row>
     <row r="242">
@@ -4466,10 +5192,13 @@
         <v>70</v>
       </c>
       <c r="D242" t="n">
-        <v>27.4413954162884</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E242" t="n">
-        <v>4.68939303628034</v>
+        <v>9.80297388804699</v>
+      </c>
+      <c r="F242" t="n">
+        <v>3.53100854256642</v>
       </c>
     </row>
     <row r="243">
@@ -4483,10 +5212,13 @@
         <v>70</v>
       </c>
       <c r="D243" t="n">
-        <v>13.5060690858179</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E243" t="n">
-        <v>2.83164933421444</v>
+        <v>4.93807501584867</v>
+      </c>
+      <c r="F243" t="n">
+        <v>2.26895547541341</v>
       </c>
     </row>
     <row r="244">
@@ -4500,10 +5232,13 @@
         <v>70</v>
       </c>
       <c r="D244" t="n">
-        <v>8.97314893067848</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E244" t="n">
-        <v>2.22217653036596</v>
+        <v>3.37261578743283</v>
+      </c>
+      <c r="F244" t="n">
+        <v>1.85436749828907</v>
       </c>
     </row>
     <row r="245">
@@ -4517,10 +5252,13 @@
         <v>70</v>
       </c>
       <c r="D245" t="n">
-        <v>8.67914366598122</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E245" t="n">
-        <v>2.10151624128894</v>
+        <v>3.33009050972792</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1.75022288874408</v>
       </c>
     </row>
     <row r="246">
@@ -4534,10 +5272,13 @@
         <v>70</v>
       </c>
       <c r="D246" t="n">
-        <v>19.4917403785797</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E246" t="n">
-        <v>2.09973330776207</v>
+        <v>7.70230102197925</v>
+      </c>
+      <c r="F246" t="n">
+        <v>1.32547447068867</v>
       </c>
     </row>
     <row r="247">
@@ -4551,10 +5292,13 @@
         <v>70</v>
       </c>
       <c r="D247" t="n">
-        <v>97.1289165193637</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E247" t="n">
-        <v>6.28935748067622</v>
+        <v>39.318751774216</v>
+      </c>
+      <c r="F247" t="n">
+        <v>2.4927366598956</v>
       </c>
     </row>
     <row r="248">
@@ -4568,10 +5312,13 @@
         <v>70</v>
       </c>
       <c r="D248" t="n">
-        <v>275.873513984625</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E248" t="n">
-        <v>13.9593917511067</v>
+        <v>114.283442240776</v>
+      </c>
+      <c r="F248" t="n">
+        <v>3.34713638877219</v>
       </c>
     </row>
     <row r="249">
@@ -4585,10 +5332,13 @@
         <v>70</v>
       </c>
       <c r="D249" t="n">
-        <v>537.298227288503</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E249" t="n">
-        <v>27.7881459201011</v>
+        <v>216.806961172039</v>
+      </c>
+      <c r="F249" t="n">
+        <v>6.74022434471345</v>
       </c>
     </row>
     <row r="250">
@@ -4602,10 +5352,13 @@
         <v>70</v>
       </c>
       <c r="D250" t="n">
-        <v>614.569330808665</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E250" t="n">
-        <v>46.4739762071055</v>
+        <v>230.201263970297</v>
+      </c>
+      <c r="F250" t="n">
+        <v>21.2310139731286</v>
       </c>
     </row>
     <row r="251">
@@ -4619,10 +5372,13 @@
         <v>70</v>
       </c>
       <c r="D251" t="n">
-        <v>488.75369926166</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E251" t="n">
-        <v>37.4066836384439</v>
+        <v>175.088291051001</v>
+      </c>
+      <c r="F251" t="n">
+        <v>16.8070429901062</v>
       </c>
     </row>
     <row r="252">
@@ -4636,10 +5392,13 @@
         <v>70</v>
       </c>
       <c r="D252" t="n">
-        <v>458.096476706505</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E252" t="n">
-        <v>29.8588018578196</v>
+        <v>159.742245112137</v>
+      </c>
+      <c r="F252" t="n">
+        <v>10.2647063794071</v>
       </c>
     </row>
     <row r="253">
@@ -4653,10 +5412,13 @@
         <v>70</v>
       </c>
       <c r="D253" t="n">
-        <v>496.725622795875</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E253" t="n">
-        <v>33.0068850832255</v>
+        <v>168.771344090508</v>
+      </c>
+      <c r="F253" t="n">
+        <v>11.4688381275404</v>
       </c>
     </row>
     <row r="254">
@@ -4670,10 +5432,13 @@
         <v>70</v>
       </c>
       <c r="D254" t="n">
-        <v>567.492670020642</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E254" t="n">
-        <v>36.3810947866087</v>
+        <v>189.761147191147</v>
+      </c>
+      <c r="F254" t="n">
+        <v>11.5739804917129</v>
       </c>
     </row>
     <row r="255">
@@ -4687,10 +5452,13 @@
         <v>70</v>
       </c>
       <c r="D255" t="n">
-        <v>586.894215597646</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E255" t="n">
-        <v>36.5841208200281</v>
+        <v>194.980076232759</v>
+      </c>
+      <c r="F255" t="n">
+        <v>10.8455783330697</v>
       </c>
     </row>
     <row r="256">
@@ -4704,10 +5472,13 @@
         <v>70</v>
       </c>
       <c r="D256" t="n">
-        <v>627.212627348193</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E256" t="n">
-        <v>42.3166268788279</v>
+        <v>209.704042965451</v>
+      </c>
+      <c r="F256" t="n">
+        <v>14.8971965535543</v>
       </c>
     </row>
     <row r="257">
@@ -4721,10 +5492,13 @@
         <v>70</v>
       </c>
       <c r="D257" t="n">
-        <v>714.827194328814</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E257" t="n">
-        <v>51.0633032606483</v>
+        <v>240.589232857315</v>
+      </c>
+      <c r="F257" t="n">
+        <v>19.9182316895043</v>
       </c>
     </row>
     <row r="258">
@@ -4738,10 +5512,13 @@
         <v>70</v>
       </c>
       <c r="D258" t="n">
-        <v>849.872380450633</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E258" t="n">
-        <v>70.3996466271508</v>
+        <v>287.884002649605</v>
+      </c>
+      <c r="F258" t="n">
+        <v>33.4916601925472</v>
       </c>
     </row>
     <row r="259">
@@ -4755,10 +5532,13 @@
         <v>70</v>
       </c>
       <c r="D259" t="n">
-        <v>1013.04202432582</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E259" t="n">
-        <v>93.4500045791764</v>
+        <v>343.132613966293</v>
+      </c>
+      <c r="F259" t="n">
+        <v>49.4544196051456</v>
       </c>
     </row>
     <row r="260">
@@ -4772,10 +5552,13 @@
         <v>70</v>
       </c>
       <c r="D260" t="n">
-        <v>850.447085289052</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E260" t="n">
-        <v>65.6672925416413</v>
+        <v>286.416274440178</v>
+      </c>
+      <c r="F260" t="n">
+        <v>28.6251714982074</v>
       </c>
     </row>
     <row r="261">
@@ -4789,10 +5572,13 @@
         <v>70</v>
       </c>
       <c r="D261" t="n">
-        <v>636.697829385281</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E261" t="n">
-        <v>44.6410585545036</v>
+        <v>212.520707894831</v>
+      </c>
+      <c r="F261" t="n">
+        <v>16.7836791775558</v>
       </c>
     </row>
     <row r="262">
@@ -4806,10 +5592,13 @@
         <v>70</v>
       </c>
       <c r="D262" t="n">
-        <v>419.315219927585</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E262" t="n">
-        <v>28.3385324232349</v>
+        <v>138.892408352812</v>
+      </c>
+      <c r="F262" t="n">
+        <v>9.92206380149502</v>
       </c>
     </row>
     <row r="263">
@@ -4823,10 +5612,13 @@
         <v>70</v>
       </c>
       <c r="D263" t="n">
-        <v>237.05332825807</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E263" t="n">
-        <v>17.1787162000947</v>
+        <v>79.0748893416269</v>
+      </c>
+      <c r="F263" t="n">
+        <v>6.80365096600139</v>
       </c>
     </row>
     <row r="264">
@@ -4840,10 +5632,13 @@
         <v>70</v>
       </c>
       <c r="D264" t="n">
-        <v>100.560872265966</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E264" t="n">
-        <v>8.56526248891999</v>
+        <v>34.2635428105829</v>
+      </c>
+      <c r="F264" t="n">
+        <v>4.21125619120246</v>
       </c>
     </row>
     <row r="265">
@@ -4857,10 +5652,13 @@
         <v>70</v>
       </c>
       <c r="D265" t="n">
-        <v>52.749407108657</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E265" t="n">
-        <v>6.46729998850634</v>
+        <v>18.3812331842431</v>
+      </c>
+      <c r="F265" t="n">
+        <v>4.21020687574901</v>
       </c>
     </row>
     <row r="266">
@@ -4874,10 +5672,13 @@
         <v>70</v>
       </c>
       <c r="D266" t="n">
-        <v>28.0015458988691</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E266" t="n">
-        <v>4.5854494034106</v>
+        <v>9.49990758201545</v>
+      </c>
+      <c r="F266" t="n">
+        <v>1.82730686790642</v>
       </c>
     </row>
     <row r="267">
@@ -4891,10 +5692,13 @@
         <v>70</v>
       </c>
       <c r="D267" t="n">
-        <v>13.7817631969016</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E267" t="n">
-        <v>1.52307096387039</v>
+        <v>4.78541071509146</v>
+      </c>
+      <c r="F267" t="n">
+        <v>0.181934464522327</v>
       </c>
     </row>
     <row r="268">
@@ -4908,10 +5712,13 @@
         <v>70</v>
       </c>
       <c r="D268" t="n">
-        <v>9.15631431376263</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E268" t="n">
-        <v>0.52175135632428</v>
+        <v>3.26834883537992</v>
+      </c>
+      <c r="F268" t="n">
+        <v>-0.356000535448149</v>
       </c>
     </row>
     <row r="269">
@@ -4925,10 +5732,13 @@
         <v>70</v>
       </c>
       <c r="D269" t="n">
-        <v>8.85630763447245</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E269" t="n">
-        <v>0.375675878075818</v>
+        <v>3.22713825859885</v>
+      </c>
+      <c r="F269" t="n">
+        <v>-0.463495833599648</v>
       </c>
     </row>
     <row r="270">
@@ -4942,10 +5752,13 @@
         <v>70</v>
       </c>
       <c r="D270" t="n">
-        <v>19.8896176590083</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E270" t="n">
-        <v>1.30858433916782</v>
+        <v>7.46417859654665</v>
+      </c>
+      <c r="F270" t="n">
+        <v>-0.543745244492461</v>
       </c>
     </row>
     <row r="271">
@@ -4959,10 +5772,13 @@
         <v>70</v>
       </c>
       <c r="D271" t="n">
-        <v>99.1115711415323</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E271" t="n">
-        <v>12.2095288701925</v>
+        <v>38.1031830096687</v>
+      </c>
+      <c r="F271" t="n">
+        <v>3.11466778560626</v>
       </c>
     </row>
     <row r="272">
@@ -4976,10 +5792,13 @@
         <v>70</v>
       </c>
       <c r="D272" t="n">
-        <v>281.504812234786</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E272" t="n">
-        <v>35.3310815432957</v>
+        <v>110.750283724184</v>
+      </c>
+      <c r="F272" t="n">
+        <v>9.87575049912338</v>
       </c>
     </row>
     <row r="273">
@@ -4993,10 +5812,13 @@
         <v>70</v>
       </c>
       <c r="D273" t="n">
-        <v>548.265886066043</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E273" t="n">
-        <v>71.7586097497174</v>
+        <v>210.104211007168</v>
+      </c>
+      <c r="F273" t="n">
+        <v>21.3469605819998</v>
       </c>
     </row>
     <row r="274">
@@ -5010,10 +5832,13 @@
         <v>70</v>
       </c>
       <c r="D274" t="n">
-        <v>627.114294430574</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E274" t="n">
-        <v>97.1241153665937</v>
+        <v>223.084418866758</v>
+      </c>
+      <c r="F274" t="n">
+        <v>36.8931257470469</v>
       </c>
     </row>
     <row r="275">
@@ -5027,10 +5852,13 @@
         <v>70</v>
       </c>
       <c r="D275" t="n">
-        <v>498.730437556171</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E275" t="n">
-        <v>77.1807315830899</v>
+        <v>169.675304930238</v>
+      </c>
+      <c r="F275" t="n">
+        <v>28.1266455460271</v>
       </c>
     </row>
     <row r="276">
@@ -5044,10 +5872,13 @@
         <v>70</v>
       </c>
       <c r="D276" t="n">
-        <v>467.447421095556</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E276" t="n">
-        <v>66.9826962022828</v>
+        <v>154.803693536237</v>
+      </c>
+      <c r="F276" t="n">
+        <v>20.3751499584223</v>
       </c>
     </row>
     <row r="277">
@@ -5061,10 +5892,13 @@
         <v>70</v>
       </c>
       <c r="D277" t="n">
-        <v>506.865088850656</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E277" t="n">
-        <v>73.4700633565102</v>
+        <v>163.553651133083</v>
+      </c>
+      <c r="F277" t="n">
+        <v>22.2907103134138</v>
       </c>
     </row>
     <row r="278">
@@ -5078,10 +5912,13 @@
         <v>70</v>
       </c>
       <c r="D278" t="n">
-        <v>579.076676159936</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E278" t="n">
-        <v>82.9617073656146</v>
+        <v>183.894538694142</v>
+      </c>
+      <c r="F278" t="n">
+        <v>24.0496994693743</v>
       </c>
     </row>
     <row r="279">
@@ -5095,10 +5932,13 @@
         <v>70</v>
       </c>
       <c r="D279" t="n">
-        <v>598.874257906124</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E279" t="n">
-        <v>84.8418936756214</v>
+        <v>188.95212062169</v>
+      </c>
+      <c r="F279" t="n">
+        <v>23.7325116994823</v>
       </c>
     </row>
     <row r="280">
@@ -5112,10 +5952,13 @@
         <v>70</v>
       </c>
       <c r="D280" t="n">
-        <v>640.015673642306</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E280" t="n">
-        <v>94.059711682108</v>
+        <v>203.220884855756</v>
+      </c>
+      <c r="F280" t="n">
+        <v>28.9442734918957</v>
       </c>
     </row>
     <row r="281">
@@ -5129,10 +5972,13 @@
         <v>70</v>
       </c>
       <c r="D281" t="n">
-        <v>729.418682545459</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E281" t="n">
-        <v>110.380200717518</v>
+        <v>233.151235887647</v>
+      </c>
+      <c r="F281" t="n">
+        <v>36.3988413280579</v>
       </c>
     </row>
     <row r="282">
@@ -5146,10 +5992,13 @@
         <v>70</v>
       </c>
       <c r="D282" t="n">
-        <v>867.22049328599</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E282" t="n">
-        <v>141.390481132436</v>
+        <v>278.983852323287</v>
+      </c>
+      <c r="F282" t="n">
+        <v>53.6987603996069</v>
       </c>
     </row>
     <row r="283">
@@ -5163,10 +6012,13 @@
         <v>70</v>
       </c>
       <c r="D283" t="n">
-        <v>1033.72085534707</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E283" t="n">
-        <v>178.545985706222</v>
+        <v>332.524411294192</v>
+      </c>
+      <c r="F283" t="n">
+        <v>74.0147163685877</v>
       </c>
     </row>
     <row r="284">
@@ -5180,10 +6032,13 @@
         <v>70</v>
       </c>
       <c r="D284" t="n">
-        <v>867.806929349724</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E284" t="n">
-        <v>136.707807219154</v>
+        <v>277.561500034654</v>
+      </c>
+      <c r="F284" t="n">
+        <v>48.7166251897311</v>
       </c>
     </row>
     <row r="285">
@@ -5197,10 +6052,13 @@
         <v>70</v>
       </c>
       <c r="D285" t="n">
-        <v>649.694493402467</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E285" t="n">
-        <v>97.2040885528133</v>
+        <v>205.950470471734</v>
+      </c>
+      <c r="F285" t="n">
+        <v>31.0526892247817</v>
       </c>
     </row>
     <row r="286">
@@ -5214,10 +6072,13 @@
         <v>70</v>
       </c>
       <c r="D286" t="n">
-        <v>427.874537674832</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E286" t="n">
-        <v>62.1099936799526</v>
+        <v>134.598445151845</v>
+      </c>
+      <c r="F286" t="n">
+        <v>18.3896889382227</v>
       </c>
     </row>
     <row r="287">
@@ -5231,10 +6092,13 @@
         <v>70</v>
       </c>
       <c r="D287" t="n">
-        <v>241.89220522503</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E287" t="n">
-        <v>35.1946077043628</v>
+        <v>76.6302297019802</v>
+      </c>
+      <c r="F287" t="n">
+        <v>10.5580822040043</v>
       </c>
     </row>
     <row r="288">
@@ -5248,10 +6112,13 @@
         <v>70</v>
       </c>
       <c r="D288" t="n">
-        <v>102.613582059838</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E288" t="n">
-        <v>14.7821081730878</v>
+        <v>33.2042596308308</v>
+      </c>
+      <c r="F288" t="n">
+        <v>4.43487290270749</v>
       </c>
     </row>
     <row r="289">
@@ -5265,10 +6132,13 @@
         <v>70</v>
       </c>
       <c r="D289" t="n">
-        <v>53.8261601454294</v>
+        <v>6.57202362483653</v>
       </c>
       <c r="E289" t="n">
-        <v>8.5510991682589</v>
+        <v>17.8129635443285</v>
+      </c>
+      <c r="F289" t="n">
+        <v>3.1824108562358</v>
       </c>
     </row>
     <row r="290">
@@ -5282,10 +6152,13 @@
         <v>75</v>
       </c>
       <c r="D290" t="n">
-        <v>30.2076158231492</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E290" t="n">
-        <v>4.87106160681382</v>
+        <v>9.9122837481687</v>
+      </c>
+      <c r="F290" t="n">
+        <v>3.53818735087261</v>
       </c>
     </row>
     <row r="291">
@@ -5299,10 +6172,13 @@
         <v>75</v>
       </c>
       <c r="D291" t="n">
-        <v>14.8675437249496</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E291" t="n">
-        <v>2.92106272690549</v>
+        <v>4.99313792792183</v>
+      </c>
+      <c r="F291" t="n">
+        <v>2.27257167334939</v>
       </c>
     </row>
     <row r="292">
@@ -5316,10 +6192,13 @@
         <v>75</v>
       </c>
       <c r="D292" t="n">
-        <v>9.87768411590856</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E292" t="n">
-        <v>2.28158091249344</v>
+        <v>3.41022275896807</v>
+      </c>
+      <c r="F292" t="n">
+        <v>1.85683729597546</v>
       </c>
     </row>
     <row r="293">
@@ -5333,10 +6212,13 @@
         <v>75</v>
       </c>
       <c r="D293" t="n">
-        <v>9.5540417518367</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E293" t="n">
-        <v>2.15897423857131</v>
+        <v>3.36722329534666</v>
+      </c>
+      <c r="F293" t="n">
+        <v>1.7526615447769</v>
       </c>
     </row>
     <row r="294">
@@ -5350,10 +6232,13 @@
         <v>75</v>
       </c>
       <c r="D294" t="n">
-        <v>21.4565985493291</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E294" t="n">
-        <v>2.22877326939917</v>
+        <v>7.78818694363354</v>
+      </c>
+      <c r="F294" t="n">
+        <v>1.33111493685586</v>
       </c>
     </row>
     <row r="295">
@@ -5367,10 +6252,13 @@
         <v>75</v>
       </c>
       <c r="D295" t="n">
-        <v>106.919963472197</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E295" t="n">
-        <v>6.93237403117806</v>
+        <v>39.7571827346249</v>
+      </c>
+      <c r="F295" t="n">
+        <v>2.52153014491855</v>
       </c>
     </row>
     <row r="296">
@@ -5384,10 +6272,13 @@
         <v>75</v>
       </c>
       <c r="D296" t="n">
-        <v>303.682848478005</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E296" t="n">
-        <v>15.7857400899338</v>
+        <v>115.557780745421</v>
+      </c>
+      <c r="F296" t="n">
+        <v>3.43082720890367</v>
       </c>
     </row>
     <row r="297">
@@ -5401,10 +6292,13 @@
         <v>75</v>
       </c>
       <c r="D297" t="n">
-        <v>591.460389902631</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E297" t="n">
-        <v>31.345188097473</v>
+        <v>219.224506997396</v>
+      </c>
+      <c r="F297" t="n">
+        <v>6.89899408453694</v>
       </c>
     </row>
     <row r="298">
@@ -5418,10 +6312,13 @@
         <v>75</v>
       </c>
       <c r="D298" t="n">
-        <v>676.520780380527</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E298" t="n">
-        <v>50.5425714854439</v>
+        <v>232.768165428141</v>
+      </c>
+      <c r="F298" t="n">
+        <v>21.3995924845842</v>
       </c>
     </row>
     <row r="299">
@@ -5435,10 +6332,13 @@
         <v>75</v>
       </c>
       <c r="D299" t="n">
-        <v>538.022347459623</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E299" t="n">
-        <v>40.6423494834509</v>
+        <v>177.040645185808</v>
+      </c>
+      <c r="F299" t="n">
+        <v>16.9352617625388</v>
       </c>
     </row>
     <row r="300">
@@ -5452,10 +6352,13 @@
         <v>75</v>
       </c>
       <c r="D300" t="n">
-        <v>504.274734151256</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E300" t="n">
-        <v>32.8915095910531</v>
+        <v>161.523480344236</v>
+      </c>
+      <c r="F300" t="n">
+        <v>10.3816871006818</v>
       </c>
     </row>
     <row r="301">
@@ -5469,10 +6372,13 @@
         <v>75</v>
       </c>
       <c r="D301" t="n">
-        <v>546.797877998065</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E301" t="n">
-        <v>36.2953269598772</v>
+        <v>170.653259948469</v>
+      </c>
+      <c r="F301" t="n">
+        <v>11.5924309413783</v>
       </c>
     </row>
     <row r="302">
@@ -5486,10 +6392,13 @@
         <v>75</v>
       </c>
       <c r="D302" t="n">
-        <v>624.698573027428</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E302" t="n">
-        <v>40.1380313631534</v>
+        <v>191.877113702217</v>
+      </c>
+      <c r="F302" t="n">
+        <v>11.712944332197</v>
       </c>
     </row>
     <row r="303">
@@ -5503,10 +6412,13 @@
         <v>75</v>
       </c>
       <c r="D303" t="n">
-        <v>646.055884719294</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E303" t="n">
-        <v>40.469500247151</v>
+        <v>197.15423737028</v>
+      </c>
+      <c r="F303" t="n">
+        <v>10.9883640434864</v>
       </c>
     </row>
     <row r="304">
@@ -5520,10 +6432,13 @@
         <v>75</v>
       </c>
       <c r="D304" t="n">
-        <v>690.438580070026</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E304" t="n">
-        <v>46.4689237902037</v>
+        <v>212.04238639728</v>
+      </c>
+      <c r="F304" t="n">
+        <v>15.0507647607815</v>
       </c>
     </row>
     <row r="305">
@@ -5537,10 +6452,13 @@
         <v>75</v>
       </c>
       <c r="D305" t="n">
-        <v>786.885103277486</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E305" t="n">
-        <v>55.7956294635313</v>
+        <v>243.271967269419</v>
+      </c>
+      <c r="F305" t="n">
+        <v>20.0944174065061</v>
       </c>
     </row>
     <row r="306">
@@ -5554,10 +6472,13 @@
         <v>75</v>
       </c>
       <c r="D306" t="n">
-        <v>935.543472841018</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E306" t="n">
-        <v>76.0260041118985</v>
+        <v>291.094106075391</v>
+      </c>
+      <c r="F306" t="n">
+        <v>33.7024803062231</v>
       </c>
     </row>
     <row r="307">
@@ -5571,10 +6492,13 @@
         <v>75</v>
       </c>
       <c r="D307" t="n">
-        <v>1115.16137642824</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E307" t="n">
-        <v>100.156583951608</v>
+        <v>346.958777175968</v>
+      </c>
+      <c r="F307" t="n">
+        <v>49.7056987870956</v>
       </c>
     </row>
     <row r="308">
@@ -5588,10 +6512,13 @@
         <v>75</v>
       </c>
       <c r="D308" t="n">
-        <v>936.176110602593</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E308" t="n">
-        <v>71.2974547092373</v>
+        <v>289.610011693096</v>
+      </c>
+      <c r="F308" t="n">
+        <v>28.8349167809615</v>
       </c>
     </row>
     <row r="309">
@@ -5605,10 +6532,13 @@
         <v>75</v>
       </c>
       <c r="D309" t="n">
-        <v>700.879934629248</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E309" t="n">
-        <v>48.856149761474</v>
+        <v>214.890459066083</v>
+      </c>
+      <c r="F309" t="n">
+        <v>16.939310054522</v>
       </c>
     </row>
     <row r="310">
@@ -5622,10 +6552,13 @@
         <v>75</v>
       </c>
       <c r="D310" t="n">
-        <v>461.584146149264</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E310" t="n">
-        <v>31.1144990040728</v>
+        <v>140.441153652187</v>
+      </c>
+      <c r="F310" t="n">
+        <v>10.0237759947679</v>
       </c>
     </row>
     <row r="311">
@@ -5639,10 +6572,13 @@
         <v>75</v>
       </c>
       <c r="D311" t="n">
-        <v>260.94940730923</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E311" t="n">
-        <v>18.7480656676253</v>
+        <v>79.9566284130339</v>
+      </c>
+      <c r="F311" t="n">
+        <v>6.86155823770278</v>
       </c>
     </row>
     <row r="312">
@@ -5656,10 +6592,13 @@
         <v>75</v>
       </c>
       <c r="D312" t="n">
-        <v>110.697876334962</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E312" t="n">
-        <v>9.23099940349811</v>
+        <v>34.6456047353286</v>
+      </c>
+      <c r="F312" t="n">
+        <v>4.23634770001777</v>
       </c>
     </row>
     <row r="313">
@@ -5673,10 +6612,13 @@
         <v>75</v>
       </c>
       <c r="D313" t="n">
-        <v>58.0667929113908</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E313" t="n">
-        <v>6.8165136214337</v>
+        <v>18.5861964995778</v>
+      </c>
+      <c r="F313" t="n">
+        <v>4.22366762255585</v>
       </c>
     </row>
     <row r="314">
@@ -5690,10 +6632,13 @@
         <v>75</v>
       </c>
       <c r="D314" t="n">
-        <v>30.8242320820624</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E314" t="n">
-        <v>5.0062429943843</v>
+        <v>9.60583804565011</v>
+      </c>
+      <c r="F314" t="n">
+        <v>1.84309851362735</v>
       </c>
     </row>
     <row r="315">
@@ -5707,10 +6652,13 @@
         <v>75</v>
       </c>
       <c r="D315" t="n">
-        <v>15.1710290858791</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E315" t="n">
-        <v>1.73017658748553</v>
+        <v>4.83877131585052</v>
+      </c>
+      <c r="F315" t="n">
+        <v>0.189889227238641</v>
       </c>
     </row>
     <row r="316">
@@ -5724,10 +6672,13 @@
         <v>75</v>
       </c>
       <c r="D316" t="n">
-        <v>10.0793134223039</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E316" t="n">
-        <v>0.659347987384841</v>
+        <v>3.30479315912334</v>
+      </c>
+      <c r="F316" t="n">
+        <v>-0.350567576605641</v>
       </c>
     </row>
     <row r="317">
@@ -5741,10 +6692,13 @@
         <v>75</v>
       </c>
       <c r="D317" t="n">
-        <v>9.74906467310953</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E317" t="n">
-        <v>0.508764154906561</v>
+        <v>3.2631230562398</v>
+      </c>
+      <c r="F317" t="n">
+        <v>-0.458131378879193</v>
       </c>
     </row>
     <row r="318">
@@ -5758,10 +6712,13 @@
         <v>75</v>
       </c>
       <c r="D318" t="n">
-        <v>21.8945837118771</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E318" t="n">
-        <v>1.60747582423279</v>
+        <v>7.54740929037792</v>
+      </c>
+      <c r="F318" t="n">
+        <v>-0.531337580209756</v>
       </c>
     </row>
     <row r="319">
@@ -5775,10 +6732,13 @@
         <v>75</v>
       </c>
       <c r="D319" t="n">
-        <v>109.102478910202</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E319" t="n">
-        <v>13.6989292796668</v>
+        <v>38.5280595473955</v>
+      </c>
+      <c r="F319" t="n">
+        <v>3.17800650356046</v>
       </c>
     </row>
     <row r="320">
@@ -5792,10 +6752,13 @@
         <v>75</v>
       </c>
       <c r="D320" t="n">
-        <v>309.881807807365</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E320" t="n">
-        <v>39.561398728085</v>
+        <v>111.985225096117</v>
+      </c>
+      <c r="F320" t="n">
+        <v>10.0598501052475</v>
       </c>
     </row>
     <row r="321">
@@ -5809,10 +6772,13 @@
         <v>75</v>
       </c>
       <c r="D321" t="n">
-        <v>603.533639743077</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E321" t="n">
-        <v>79.9976824008964</v>
+        <v>212.447016586215</v>
+      </c>
+      <c r="F321" t="n">
+        <v>21.6962156917001</v>
       </c>
     </row>
     <row r="322">
@@ -5826,10 +6792,13 @@
         <v>75</v>
       </c>
       <c r="D322" t="n">
-        <v>690.330334736538</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E322" t="n">
-        <v>106.548083488119</v>
+        <v>225.571962636653</v>
+      </c>
+      <c r="F322" t="n">
+        <v>37.2639577870629</v>
       </c>
     </row>
     <row r="323">
@@ -5843,10 +6812,13 @@
         <v>75</v>
       </c>
       <c r="D323" t="n">
-        <v>549.004787419284</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E323" t="n">
-        <v>84.6754096449758</v>
+        <v>171.567300569505</v>
+      </c>
+      <c r="F323" t="n">
+        <v>28.4086959007191</v>
       </c>
     </row>
     <row r="324">
@@ -5860,10 +6832,13 @@
         <v>75</v>
       </c>
       <c r="D324" t="n">
-        <v>514.568297266506</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E324" t="n">
-        <v>74.0072683321428</v>
+        <v>156.529860542293</v>
+      </c>
+      <c r="F324" t="n">
+        <v>20.6324793127881</v>
       </c>
     </row>
     <row r="325">
@@ -5877,10 +6852,13 @@
         <v>75</v>
       </c>
       <c r="D325" t="n">
-        <v>557.959449433783</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E325" t="n">
-        <v>81.0869849953003</v>
+        <v>165.377386147776</v>
+      </c>
+      <c r="F325" t="n">
+        <v>22.5625846756388</v>
       </c>
     </row>
     <row r="326">
@@ -5894,10 +6872,13 @@
         <v>75</v>
       </c>
       <c r="D326" t="n">
-        <v>637.450300912996</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E326" t="n">
-        <v>91.6637895610227</v>
+        <v>185.945088510083</v>
+      </c>
+      <c r="F326" t="n">
+        <v>24.3553863805363</v>
       </c>
     </row>
     <row r="327">
@@ -5911,10 +6892,13 @@
         <v>75</v>
       </c>
       <c r="D327" t="n">
-        <v>659.243571063582</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E327" t="n">
-        <v>93.8414842852314</v>
+        <v>191.059065933464</v>
+      </c>
+      <c r="F327" t="n">
+        <v>24.0466058021159</v>
       </c>
     </row>
     <row r="328">
@@ -5928,10 +6912,13 @@
         <v>75</v>
       </c>
       <c r="D328" t="n">
-        <v>704.532233033059</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E328" t="n">
-        <v>103.677555445594</v>
+        <v>205.486936642804</v>
+      </c>
+      <c r="F328" t="n">
+        <v>29.2820864852358</v>
       </c>
     </row>
     <row r="329">
@@ -5945,10 +6932,13 @@
         <v>75</v>
       </c>
       <c r="D329" t="n">
-        <v>802.947481434641</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E329" t="n">
-        <v>121.341549346631</v>
+        <v>235.751031548957</v>
+      </c>
+      <c r="F329" t="n">
+        <v>36.7864073843324</v>
       </c>
     </row>
     <row r="330">
@@ -5962,10 +6952,13 @@
         <v>75</v>
       </c>
       <c r="D330" t="n">
-        <v>954.640356211463</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E330" t="n">
-        <v>154.422648243985</v>
+        <v>282.09471298883</v>
+      </c>
+      <c r="F330" t="n">
+        <v>54.1625137698069</v>
       </c>
     </row>
     <row r="331">
@@ -5979,10 +6972,13 @@
         <v>75</v>
       </c>
       <c r="D331" t="n">
-        <v>1137.92472988333</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E331" t="n">
-        <v>194.080239149117</v>
+        <v>336.232285792353</v>
+      </c>
+      <c r="F331" t="n">
+        <v>74.5674699244915</v>
       </c>
     </row>
     <row r="332">
@@ -5996,10 +6992,13 @@
         <v>75</v>
       </c>
       <c r="D332" t="n">
-        <v>955.285907760477</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E332" t="n">
-        <v>149.748787006191</v>
+        <v>280.656500499865</v>
+      </c>
+      <c r="F332" t="n">
+        <v>49.1780141913055</v>
       </c>
     </row>
     <row r="333">
@@ -6013,10 +7012,13 @@
         <v>75</v>
       </c>
       <c r="D333" t="n">
-        <v>715.186722883197</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E333" t="n">
-        <v>106.967380904672</v>
+        <v>208.246959004333</v>
+      </c>
+      <c r="F333" t="n">
+        <v>31.3950395937373</v>
       </c>
     </row>
     <row r="334">
@@ -6030,10 +7032,13 @@
         <v>75</v>
       </c>
       <c r="D334" t="n">
-        <v>471.006282971928</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E334" t="n">
-        <v>68.5398837954721</v>
+        <v>136.099309826196</v>
+      </c>
+      <c r="F334" t="n">
+        <v>18.6134312159317</v>
       </c>
     </row>
     <row r="335">
@@ -6047,10 +7052,13 @@
         <v>75</v>
       </c>
       <c r="D335" t="n">
-        <v>266.276065601054</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E335" t="n">
-        <v>38.8296459280667</v>
+        <v>77.4847091472464</v>
+      </c>
+      <c r="F335" t="n">
+        <v>10.6854642262524</v>
       </c>
     </row>
     <row r="336">
@@ -6064,10 +7072,13 @@
         <v>75</v>
       </c>
       <c r="D336" t="n">
-        <v>112.957508832108</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E336" t="n">
-        <v>16.3241350966577</v>
+        <v>33.574509824001</v>
+      </c>
+      <c r="F336" t="n">
+        <v>4.49006816644967</v>
       </c>
     </row>
     <row r="337">
@@ -6081,10 +7092,13 @@
         <v>75</v>
       </c>
       <c r="D337" t="n">
-        <v>59.2520876669163</v>
+        <v>11.5720236248365</v>
       </c>
       <c r="E337" t="n">
-        <v>9.35997248181532</v>
+        <v>18.0115902647115</v>
+      </c>
+      <c r="F337" t="n">
+        <v>3.2120212505584</v>
       </c>
     </row>
     <row r="338">
@@ -6098,10 +7112,13 @@
         <v>80</v>
       </c>
       <c r="D338" t="n">
-        <v>33.2526841247054</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E338" t="n">
-        <v>5.07104321498521</v>
+        <v>9.14861272174081</v>
+      </c>
+      <c r="F338" t="n">
+        <v>3.48803407191302</v>
       </c>
     </row>
     <row r="339">
@@ -6115,10 +7132,13 @@
         <v>80</v>
       </c>
       <c r="D339" t="n">
-        <v>16.3662613458269</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E339" t="n">
-        <v>3.01948940582913</v>
+        <v>4.60845213165247</v>
+      </c>
+      <c r="F339" t="n">
+        <v>2.24730784457441</v>
       </c>
     </row>
     <row r="340">
@@ -6132,10 +7152,13 @@
         <v>80</v>
       </c>
       <c r="D340" t="n">
-        <v>10.8734006587245</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E340" t="n">
-        <v>2.34697353288669</v>
+        <v>3.14748932832248</v>
+      </c>
+      <c r="F340" t="n">
+        <v>1.83958255855166</v>
       </c>
     </row>
     <row r="341">
@@ -6149,10 +7172,13 @@
         <v>80</v>
       </c>
       <c r="D341" t="n">
-        <v>10.5171336376904</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E341" t="n">
-        <v>2.22222426946599</v>
+        <v>3.1078026678203</v>
+      </c>
+      <c r="F341" t="n">
+        <v>1.73562437215944</v>
       </c>
     </row>
     <row r="342">
@@ -6166,10 +7192,13 @@
         <v>80</v>
       </c>
       <c r="D342" t="n">
-        <v>23.6195235707638</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E342" t="n">
-        <v>2.37082105989358</v>
+        <v>7.18816248223173</v>
+      </c>
+      <c r="F342" t="n">
+        <v>1.29170897125831</v>
       </c>
     </row>
     <row r="343">
@@ -6183,10 +7212,13 @@
         <v>80</v>
       </c>
       <c r="D343" t="n">
-        <v>117.697993538483</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E343" t="n">
-        <v>7.64020964342818</v>
+        <v>36.6941743181799</v>
+      </c>
+      <c r="F343" t="n">
+        <v>2.32037033886424</v>
       </c>
     </row>
     <row r="344">
@@ -6200,10 +7232,13 @@
         <v>80</v>
       </c>
       <c r="D344" t="n">
-        <v>334.295493350097</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E344" t="n">
-        <v>17.7961928435787</v>
+        <v>106.654874888848</v>
+      </c>
+      <c r="F344" t="n">
+        <v>2.84613837624726</v>
       </c>
     </row>
     <row r="345">
@@ -6217,10 +7252,13 @@
         <v>80</v>
       </c>
       <c r="D345" t="n">
-        <v>651.082350651296</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E345" t="n">
-        <v>35.2607966855482</v>
+        <v>202.33481653552</v>
+      </c>
+      <c r="F345" t="n">
+        <v>5.78978170386337</v>
       </c>
     </row>
     <row r="346">
@@ -6234,10 +7272,13 @@
         <v>80</v>
       </c>
       <c r="D346" t="n">
-        <v>744.717224474009</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E346" t="n">
-        <v>55.0213001085144</v>
+        <v>214.835032324976</v>
+      </c>
+      <c r="F346" t="n">
+        <v>20.2218531229779</v>
       </c>
     </row>
     <row r="347">
@@ -6251,10 +7292,13 @@
         <v>80</v>
       </c>
       <c r="D347" t="n">
-        <v>592.257504758023</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E347" t="n">
-        <v>44.2041855087444</v>
+        <v>163.400921519354</v>
+      </c>
+      <c r="F347" t="n">
+        <v>16.0394874797627</v>
       </c>
     </row>
     <row r="348">
@@ -6268,10 +7312,13 @@
         <v>80</v>
       </c>
       <c r="D348" t="n">
-        <v>555.107974921715</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E348" t="n">
-        <v>36.2299283820681</v>
+        <v>149.079243964353</v>
+      </c>
+      <c r="F348" t="n">
+        <v>9.56442516851356</v>
       </c>
     </row>
     <row r="349">
@@ -6285,10 +7332,13 @@
         <v>80</v>
       </c>
       <c r="D349" t="n">
-        <v>601.917649627777</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E349" t="n">
-        <v>39.9152590864952</v>
+        <v>157.505638925999</v>
+      </c>
+      <c r="F349" t="n">
+        <v>10.7289749741155</v>
       </c>
     </row>
     <row r="350">
@@ -6302,10 +7352,13 @@
         <v>80</v>
       </c>
       <c r="D350" t="n">
-        <v>687.671097369962</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E350" t="n">
-        <v>44.2736846364135</v>
+        <v>177.09434556404</v>
+      </c>
+      <c r="F350" t="n">
+        <v>10.7421018246623</v>
       </c>
     </row>
     <row r="351">
@@ -6319,10 +7372,13 @@
         <v>80</v>
       </c>
       <c r="D351" t="n">
-        <v>711.181325505817</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E351" t="n">
-        <v>44.7465440082723</v>
+        <v>181.964904352549</v>
+      </c>
+      <c r="F351" t="n">
+        <v>9.99082082175177</v>
       </c>
     </row>
     <row r="352">
@@ -6336,10 +7392,13 @@
         <v>80</v>
       </c>
       <c r="D352" t="n">
-        <v>760.038003164235</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E352" t="n">
-        <v>51.0397915605809</v>
+        <v>195.706027291726</v>
+      </c>
+      <c r="F352" t="n">
+        <v>13.9778918259037</v>
       </c>
     </row>
     <row r="353">
@@ -6353,10 +7412,13 @@
         <v>80</v>
       </c>
       <c r="D353" t="n">
-        <v>866.206784901919</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E353" t="n">
-        <v>61.0049961782305</v>
+        <v>224.529590874061</v>
+      </c>
+      <c r="F353" t="n">
+        <v>18.8635318560633</v>
       </c>
     </row>
     <row r="354">
@@ -6370,10 +7432,13 @@
         <v>80</v>
       </c>
       <c r="D354" t="n">
-        <v>1029.85061017202</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E354" t="n">
-        <v>82.2195246236898</v>
+        <v>268.667373707608</v>
+      </c>
+      <c r="F354" t="n">
+        <v>32.2296286126679</v>
       </c>
     </row>
     <row r="355">
@@ -6387,10 +7452,13 @@
         <v>80</v>
       </c>
       <c r="D355" t="n">
-        <v>1227.57483462242</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E355" t="n">
-        <v>107.539217746157</v>
+        <v>320.228068872436</v>
+      </c>
+      <c r="F355" t="n">
+        <v>47.9501880711723</v>
       </c>
     </row>
     <row r="356">
@@ -6404,10 +7472,13 @@
         <v>80</v>
       </c>
       <c r="D356" t="n">
-        <v>1030.5470207651</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E356" t="n">
-        <v>77.4951634336201</v>
+        <v>267.297618251542</v>
+      </c>
+      <c r="F356" t="n">
+        <v>27.3695741742574</v>
       </c>
     </row>
     <row r="357">
@@ -6421,10 +7492,13 @@
         <v>80</v>
       </c>
       <c r="D357" t="n">
-        <v>771.531894871035</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E357" t="n">
-        <v>53.4961417847703</v>
+        <v>198.334676199711</v>
+      </c>
+      <c r="F357" t="n">
+        <v>15.8520266985258</v>
       </c>
     </row>
     <row r="358">
@@ -6438,10 +7512,13 @@
         <v>80</v>
       </c>
       <c r="D358" t="n">
-        <v>508.113976910116</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E358" t="n">
-        <v>34.1702959393147</v>
+        <v>129.621160733593</v>
+      </c>
+      <c r="F358" t="n">
+        <v>9.31318451701428</v>
       </c>
     </row>
     <row r="359">
@@ -6455,10 +7532,13 @@
         <v>80</v>
       </c>
       <c r="D359" t="n">
-        <v>287.254322373009</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E359" t="n">
-        <v>20.475612867331</v>
+        <v>73.7965383630314</v>
+      </c>
+      <c r="F359" t="n">
+        <v>6.45700090345499</v>
       </c>
     </row>
     <row r="360">
@@ -6472,10 +7552,13 @@
         <v>80</v>
       </c>
       <c r="D360" t="n">
-        <v>121.856737605267</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E360" t="n">
-        <v>9.96384569829433</v>
+        <v>31.976407081021</v>
+      </c>
+      <c r="F360" t="n">
+        <v>4.06105099512516</v>
       </c>
     </row>
     <row r="361">
@@ -6489,10 +7572,13 @@
         <v>80</v>
       </c>
       <c r="D361" t="n">
-        <v>63.9201959572545</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E361" t="n">
-        <v>7.20092961426673</v>
+        <v>17.154262132198</v>
+      </c>
+      <c r="F361" t="n">
+        <v>4.12962686247236</v>
       </c>
     </row>
     <row r="362">
@@ -6506,10 +7592,13 @@
         <v>80</v>
       </c>
       <c r="D362" t="n">
-        <v>33.9314581730725</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E362" t="n">
-        <v>5.46945453826344</v>
+        <v>8.865776483008</v>
+      </c>
+      <c r="F362" t="n">
+        <v>1.73277340404202</v>
       </c>
     </row>
     <row r="363">
@@ -6523,10 +7612,13 @@
         <v>80</v>
       </c>
       <c r="D363" t="n">
-        <v>16.7003394439641</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E363" t="n">
-        <v>1.95815942210722</v>
+        <v>4.4659783701171</v>
+      </c>
+      <c r="F363" t="n">
+        <v>0.13431490117333</v>
       </c>
     </row>
     <row r="364">
@@ -6540,10 +7632,13 @@
         <v>80</v>
       </c>
       <c r="D364" t="n">
-        <v>11.0953551378565</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E364" t="n">
-        <v>0.810814999414771</v>
+        <v>3.05018232996645</v>
+      </c>
+      <c r="F364" t="n">
+        <v>-0.38852383463377</v>
       </c>
     </row>
     <row r="365">
@@ -6557,10 +7652,13 @@
         <v>80</v>
       </c>
       <c r="D365" t="n">
-        <v>10.7318157773247</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E365" t="n">
-        <v>0.655268349612406</v>
+        <v>3.01172261240368</v>
+      </c>
+      <c r="F365" t="n">
+        <v>-0.495609046841029</v>
       </c>
     </row>
     <row r="366">
@@ -6574,10 +7672,13 @@
         <v>80</v>
       </c>
       <c r="D366" t="n">
-        <v>24.1016596766645</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E366" t="n">
-        <v>1.93649696243242</v>
+        <v>6.96593503620122</v>
+      </c>
+      <c r="F366" t="n">
+        <v>-0.618021194183791</v>
       </c>
     </row>
     <row r="367">
@@ -6591,10 +7692,13 @@
         <v>80</v>
       </c>
       <c r="D367" t="n">
-        <v>120.100516692981</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E367" t="n">
-        <v>15.3384681840746</v>
+        <v>35.5597463384167</v>
+      </c>
+      <c r="F367" t="n">
+        <v>2.73550347868372</v>
       </c>
     </row>
     <row r="368">
@@ -6608,10 +7712,13 @@
         <v>80</v>
       </c>
       <c r="D368" t="n">
-        <v>341.11933663809</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E368" t="n">
-        <v>44.2181515786463</v>
+        <v>103.357559265858</v>
+      </c>
+      <c r="F368" t="n">
+        <v>8.77367578376169</v>
       </c>
     </row>
     <row r="369">
@@ -6625,10 +7732,13 @@
         <v>80</v>
       </c>
       <c r="D369" t="n">
-        <v>664.372640280685</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E369" t="n">
-        <v>89.0672919309607</v>
+        <v>196.079483599893</v>
+      </c>
+      <c r="F369" t="n">
+        <v>19.2562161544851</v>
       </c>
     </row>
     <row r="370">
@@ -6642,10 +7752,13 @@
         <v>80</v>
       </c>
       <c r="D370" t="n">
-        <v>759.918846197212</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E370" t="n">
-        <v>116.922031468027</v>
+        <v>208.193245822588</v>
+      </c>
+      <c r="F370" t="n">
+        <v>34.6732154302798</v>
       </c>
     </row>
     <row r="371">
@@ -6659,10 +7772,13 @@
         <v>80</v>
       </c>
       <c r="D371" t="n">
-        <v>604.347025792558</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E371" t="n">
-        <v>92.9255861457397</v>
+        <v>158.349259212327</v>
+      </c>
+      <c r="F371" t="n">
+        <v>26.4382086671601</v>
       </c>
     </row>
     <row r="372">
@@ -6676,10 +7792,13 @@
         <v>80</v>
       </c>
       <c r="D372" t="n">
-        <v>566.439177118969</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E372" t="n">
-        <v>81.739950034432</v>
+        <v>144.470347083648</v>
+      </c>
+      <c r="F372" t="n">
+        <v>18.8347003021869</v>
       </c>
     </row>
     <row r="373">
@@ -6693,10 +7812,13 @@
         <v>80</v>
       </c>
       <c r="D373" t="n">
-        <v>614.204359425074</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E373" t="n">
-        <v>89.4717277946052</v>
+        <v>152.63623371146</v>
+      </c>
+      <c r="F373" t="n">
+        <v>20.6631899364209</v>
       </c>
     </row>
     <row r="374">
@@ -6710,10 +7832,13 @@
         <v>80</v>
       </c>
       <c r="D374" t="n">
-        <v>701.708258789964</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E374" t="n">
-        <v>101.243082152839</v>
+        <v>171.619340760181</v>
+      </c>
+      <c r="F374" t="n">
+        <v>22.2197671696734</v>
       </c>
     </row>
     <row r="375">
@@ -6727,10 +7852,13 @@
         <v>80</v>
       </c>
       <c r="D375" t="n">
-        <v>725.698392026712</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E375" t="n">
-        <v>103.748275524403</v>
+        <v>176.339322562849</v>
+      </c>
+      <c r="F375" t="n">
+        <v>21.8522514640346</v>
       </c>
     </row>
     <row r="376">
@@ -6744,10 +7872,13 @@
         <v>80</v>
       </c>
       <c r="D376" t="n">
-        <v>775.552361956622</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E376" t="n">
-        <v>114.264922634727</v>
+        <v>189.655628358018</v>
+      </c>
+      <c r="F376" t="n">
+        <v>26.9220249585129</v>
       </c>
     </row>
     <row r="377">
@@ -6761,10 +7892,13 @@
         <v>80</v>
       </c>
       <c r="D377" t="n">
-        <v>883.888325553071</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E377" t="n">
-        <v>133.407852946313</v>
+        <v>217.588089807334</v>
+      </c>
+      <c r="F377" t="n">
+        <v>34.0787562385513</v>
       </c>
     </row>
     <row r="378">
@@ -6778,10 +7912,13 @@
         <v>80</v>
       </c>
       <c r="D378" t="n">
-        <v>1050.8725482886</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E378" t="n">
-        <v>168.768518469488</v>
+        <v>260.36131990897</v>
+      </c>
+      <c r="F378" t="n">
+        <v>50.9225955059313</v>
       </c>
     </row>
     <row r="379">
@@ -6795,10 +7932,13 @@
         <v>80</v>
       </c>
       <c r="D379" t="n">
-        <v>1252.63284007682</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E379" t="n">
-        <v>211.180417656216</v>
+        <v>310.327977427827</v>
+      </c>
+      <c r="F379" t="n">
+        <v>70.7057700290865</v>
       </c>
     </row>
     <row r="380">
@@ -6812,10 +7952,13 @@
         <v>80</v>
       </c>
       <c r="D380" t="n">
-        <v>1051.58317443902</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E380" t="n">
-        <v>164.104358265895</v>
+        <v>259.033911472388</v>
+      </c>
+      <c r="F380" t="n">
+        <v>45.9546141062393</v>
       </c>
     </row>
     <row r="381">
@@ -6829,10 +7972,13 @@
         <v>80</v>
       </c>
       <c r="D381" t="n">
-        <v>787.280873983877</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E381" t="n">
-        <v>117.714858576999</v>
+        <v>192.203010609221</v>
+      </c>
+      <c r="F381" t="n">
+        <v>29.0032786184034</v>
       </c>
     </row>
     <row r="382">
@@ -6846,10 +7992,13 @@
         <v>80</v>
       </c>
       <c r="D382" t="n">
-        <v>518.485908987712</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E382" t="n">
-        <v>75.6179367679309</v>
+        <v>125.613825121392</v>
+      </c>
+      <c r="F382" t="n">
+        <v>17.0503014609114</v>
       </c>
     </row>
     <row r="383">
@@ -6863,10 +8012,13 @@
         <v>80</v>
       </c>
       <c r="D383" t="n">
-        <v>293.11793261803</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E383" t="n">
-        <v>42.8311129270419</v>
+        <v>71.5150629112944</v>
+      </c>
+      <c r="F383" t="n">
+        <v>9.79553572785053</v>
       </c>
     </row>
     <row r="384">
@@ -6880,10 +8032,13 @@
         <v>80</v>
       </c>
       <c r="D384" t="n">
-        <v>124.344151577472</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E384" t="n">
-        <v>18.0216055127759</v>
+        <v>30.9878324214453</v>
+      </c>
+      <c r="F384" t="n">
+        <v>4.10445772225904</v>
       </c>
     </row>
     <row r="385">
@@ -6897,10 +8052,13 @@
         <v>80</v>
       </c>
       <c r="D385" t="n">
-        <v>65.2249739420815</v>
+        <v>16.5720236248365</v>
       </c>
       <c r="E385" t="n">
-        <v>10.2503839909548</v>
+        <v>16.6239252245948</v>
+      </c>
+      <c r="F385" t="n">
+        <v>3.00515427442194</v>
       </c>
     </row>
     <row r="386">
@@ -6914,10 +8072,13 @@
         <v>85</v>
       </c>
       <c r="D386" t="n">
-        <v>36.6047094868726</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E386" t="n">
-        <v>5.29118390024172</v>
+        <v>7.80485083065274</v>
+      </c>
+      <c r="F386" t="n">
+        <v>3.39978394503019</v>
       </c>
     </row>
     <row r="387">
@@ -6931,10 +8092,13 @@
         <v>85</v>
       </c>
       <c r="D387" t="n">
-        <v>18.0160566799217</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E387" t="n">
-        <v>3.12783795219747</v>
+        <v>3.9315558043326</v>
+      </c>
+      <c r="F387" t="n">
+        <v>2.20285340129195</v>
       </c>
     </row>
     <row r="388">
@@ -6948,10 +8112,13 @@
         <v>85</v>
       </c>
       <c r="D388" t="n">
-        <v>11.9694900644507</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E388" t="n">
-        <v>2.41895803384016</v>
+        <v>2.68518139807693</v>
+      </c>
+      <c r="F388" t="n">
+        <v>1.80922097903844</v>
       </c>
     </row>
     <row r="389">
@@ -6965,10 +8132,13 @@
         <v>85</v>
       </c>
       <c r="D389" t="n">
-        <v>11.577309669154</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E389" t="n">
-        <v>2.29185019792496</v>
+        <v>2.65132397350258</v>
+      </c>
+      <c r="F389" t="n">
+        <v>1.70564562148939</v>
       </c>
     </row>
     <row r="390">
@@ -6982,10 +8152,13 @@
         <v>85</v>
       </c>
       <c r="D390" t="n">
-        <v>26.0004815035006</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E390" t="n">
-        <v>2.52718792894994</v>
+        <v>6.13235444834065</v>
+      </c>
+      <c r="F390" t="n">
+        <v>1.22236990637431</v>
       </c>
     </row>
     <row r="391">
@@ -6999,10 +8172,13 @@
         <v>85</v>
       </c>
       <c r="D391" t="n">
-        <v>129.562499210796</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E391" t="n">
-        <v>8.41939838060529</v>
+        <v>31.3044792274109</v>
+      </c>
+      <c r="F391" t="n">
+        <v>1.96640787068099</v>
       </c>
     </row>
     <row r="392">
@@ -7016,10 +8192,13 @@
         <v>85</v>
       </c>
       <c r="D392" t="n">
-        <v>367.994035337425</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E392" t="n">
-        <v>20.0093085941228</v>
+        <v>90.9892476802746</v>
+      </c>
+      <c r="F392" t="n">
+        <v>1.81731504227384</v>
       </c>
     </row>
     <row r="393">
@@ -7033,10 +8212,13 @@
         <v>85</v>
       </c>
       <c r="D393" t="n">
-        <v>716.714482603648</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E393" t="n">
-        <v>39.5711168477726</v>
+        <v>172.61557669333</v>
+      </c>
+      <c r="F393" t="n">
+        <v>3.83800237128323</v>
       </c>
     </row>
     <row r="394">
@@ -7050,10 +8232,13 @@
         <v>85</v>
       </c>
       <c r="D394" t="n">
-        <v>819.788187609432</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E394" t="n">
-        <v>59.9515054267742</v>
+        <v>183.279742130766</v>
+      </c>
+      <c r="F394" t="n">
+        <v>18.149493144672</v>
       </c>
     </row>
     <row r="395">
@@ -7067,10 +8252,13 @@
         <v>85</v>
       </c>
       <c r="D395" t="n">
-        <v>651.959818394947</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E395" t="n">
-        <v>48.1250711869286</v>
+        <v>139.400350286888</v>
+      </c>
+      <c r="F395" t="n">
+        <v>14.4632755998362</v>
       </c>
     </row>
     <row r="396">
@@ -7084,10 +8272,13 @@
         <v>85</v>
       </c>
       <c r="D396" t="n">
-        <v>611.065443007619</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E396" t="n">
-        <v>39.9048753286765</v>
+        <v>127.182262106605</v>
+      </c>
+      <c r="F396" t="n">
+        <v>8.12636427386167</v>
       </c>
     </row>
     <row r="397">
@@ -7101,10 +8292,13 @@
         <v>85</v>
       </c>
       <c r="D397" t="n">
-        <v>662.593750838787</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E397" t="n">
-        <v>43.9000972234743</v>
+        <v>134.370975599692</v>
+      </c>
+      <c r="F397" t="n">
+        <v>9.20963067102261</v>
       </c>
     </row>
     <row r="398">
@@ -7118,10 +8312,13 @@
         <v>85</v>
       </c>
       <c r="D398" t="n">
-        <v>756.991545324443</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E398" t="n">
-        <v>48.8262310124713</v>
+        <v>151.082463770135</v>
+      </c>
+      <c r="F398" t="n">
+        <v>9.03379927195743</v>
       </c>
     </row>
     <row r="399">
@@ -7135,10 +8332,13 @@
         <v>85</v>
       </c>
       <c r="D399" t="n">
-        <v>782.871713904389</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E399" t="n">
-        <v>49.4547336915877</v>
+        <v>155.237627614365</v>
+      </c>
+      <c r="F399" t="n">
+        <v>8.23553547021722</v>
       </c>
     </row>
     <row r="400">
@@ -7152,10 +8352,13 @@
         <v>85</v>
       </c>
       <c r="D400" t="n">
-        <v>836.653372114995</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E400" t="n">
-        <v>56.0714240811345</v>
+        <v>166.960433907287</v>
+      </c>
+      <c r="F400" t="n">
+        <v>12.0900556844539</v>
       </c>
     </row>
     <row r="401">
@@ -7169,10 +8372,13 @@
         <v>85</v>
       </c>
       <c r="D401" t="n">
-        <v>953.524461303124</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E401" t="n">
-        <v>66.7394913091206</v>
+        <v>191.550349450805</v>
+      </c>
+      <c r="F401" t="n">
+        <v>16.697655401757</v>
       </c>
     </row>
     <row r="402">
@@ -7186,10 +8392,13 @@
         <v>85</v>
       </c>
       <c r="D402" t="n">
-        <v>1133.66434597734</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E402" t="n">
-        <v>89.0373808359847</v>
+        <v>229.205108865086</v>
+      </c>
+      <c r="F402" t="n">
+        <v>29.6379865200227</v>
       </c>
     </row>
     <row r="403">
@@ -7203,10 +8412,13 @@
         <v>85</v>
       </c>
       <c r="D403" t="n">
-        <v>1351.32009272492</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E403" t="n">
-        <v>115.666055395833</v>
+        <v>273.192492168559</v>
+      </c>
+      <c r="F403" t="n">
+        <v>44.8611768113254</v>
       </c>
     </row>
     <row r="404">
@@ -7220,10 +8432,13 @@
         <v>85</v>
       </c>
       <c r="D404" t="n">
-        <v>1134.43095800023</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E404" t="n">
-        <v>84.3176300498333</v>
+        <v>228.036545134799</v>
+      </c>
+      <c r="F404" t="n">
+        <v>24.7911451333035</v>
       </c>
     </row>
     <row r="405">
@@ -7237,10 +8452,13 @@
         <v>85</v>
       </c>
       <c r="D405" t="n">
-        <v>849.305901613762</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E405" t="n">
-        <v>58.6038666047338</v>
+        <v>169.202982940347</v>
+      </c>
+      <c r="F405" t="n">
+        <v>13.9388338601958</v>
       </c>
     </row>
     <row r="406">
@@ -7254,10 +8472,13 @@
         <v>85</v>
       </c>
       <c r="D406" t="n">
-        <v>559.33423122363</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E406" t="n">
-        <v>37.5341314313886</v>
+        <v>110.582211182424</v>
+      </c>
+      <c r="F406" t="n">
+        <v>8.06282184134267</v>
       </c>
     </row>
     <row r="407">
@@ -7271,10 +8492,13 @@
         <v>85</v>
       </c>
       <c r="D407" t="n">
-        <v>316.210895333418</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E407" t="n">
-        <v>22.3773048670787</v>
+        <v>62.9571926652073</v>
+      </c>
+      <c r="F407" t="n">
+        <v>5.74513845259677</v>
       </c>
     </row>
     <row r="408">
@@ -7288,10 +8512,13 @@
         <v>85</v>
       </c>
       <c r="D408" t="n">
-        <v>134.140464039859</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E408" t="n">
-        <v>10.7705663112513</v>
+        <v>27.279664683424</v>
+      </c>
+      <c r="F408" t="n">
+        <v>3.7525974549014</v>
       </c>
     </row>
     <row r="409">
@@ -7305,10 +8532,13 @@
         <v>85</v>
       </c>
       <c r="D409" t="n">
-        <v>70.3636492796955</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E409" t="n">
-        <v>7.62409652876269</v>
+        <v>14.6346185070827</v>
+      </c>
+      <c r="F409" t="n">
+        <v>3.96415195870359</v>
       </c>
     </row>
     <row r="410">
@@ -7322,10 +8552,13 @@
         <v>85</v>
       </c>
       <c r="D410" t="n">
-        <v>37.3519071192359</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E410" t="n">
-        <v>5.97935996217069</v>
+        <v>7.56355800080471</v>
+      </c>
+      <c r="F410" t="n">
+        <v>1.53864442342019</v>
       </c>
     </row>
     <row r="411">
@@ -7339,10 +8572,13 @@
         <v>85</v>
       </c>
       <c r="D411" t="n">
-        <v>18.3838114055968</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E411" t="n">
-        <v>2.20912398779533</v>
+        <v>3.81000880153697</v>
+      </c>
+      <c r="F411" t="n">
+        <v>0.0365258547055327</v>
       </c>
     </row>
     <row r="412">
@@ -7356,10 +8592,13 @@
         <v>85</v>
       </c>
       <c r="D412" t="n">
-        <v>12.2138185883517</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E412" t="n">
-        <v>0.97755059138706</v>
+        <v>2.60216699687241</v>
+      </c>
+      <c r="F412" t="n">
+        <v>-0.455311982018487</v>
       </c>
     </row>
     <row r="413">
@@ -7373,10 +8612,13 @@
         <v>85</v>
       </c>
       <c r="D413" t="n">
-        <v>11.8136327678807</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E413" t="n">
-        <v>0.816540849170764</v>
+        <v>2.56935630002728</v>
+      </c>
+      <c r="F413" t="n">
+        <v>-0.561555063163705</v>
       </c>
     </row>
     <row r="414">
@@ -7390,10 +8632,13 @@
         <v>85</v>
       </c>
       <c r="D414" t="n">
-        <v>26.5312191733813</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E414" t="n">
-        <v>2.29868496306631</v>
+        <v>5.94276810126277</v>
+      </c>
+      <c r="F414" t="n">
+        <v>-0.770550402454201</v>
       </c>
     </row>
     <row r="415">
@@ -7407,10 +8652,13 @@
         <v>85</v>
       </c>
       <c r="D415" t="n">
-        <v>132.207207883818</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E415" t="n">
-        <v>17.1432802426502</v>
+        <v>30.3366777224757</v>
+      </c>
+      <c r="F415" t="n">
+        <v>1.9568714749243</v>
       </c>
     </row>
     <row r="416">
@@ -7424,10 +8672,13 @@
         <v>85</v>
       </c>
       <c r="D416" t="n">
-        <v>375.505753796127</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E416" t="n">
-        <v>49.3443267952906</v>
+        <v>88.1762466973103</v>
+      </c>
+      <c r="F416" t="n">
+        <v>6.51051274798057</v>
       </c>
     </row>
     <row r="417">
@@ -7441,10 +8692,13 @@
         <v>85</v>
       </c>
       <c r="D417" t="n">
-        <v>731.344495298436</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E417" t="n">
-        <v>99.0511603237297</v>
+        <v>167.279036395519</v>
+      </c>
+      <c r="F417" t="n">
+        <v>14.9627726704252</v>
       </c>
     </row>
     <row r="418">
@@ -7458,10 +8712,13 @@
         <v>85</v>
       </c>
       <c r="D418" t="n">
-        <v>836.522203570982</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E418" t="n">
-        <v>128.341721698516</v>
+        <v>177.61351114287</v>
+      </c>
+      <c r="F418" t="n">
+        <v>30.1145236268771</v>
       </c>
     </row>
     <row r="419">
@@ -7475,10 +8732,13 @@
         <v>85</v>
       </c>
       <c r="D419" t="n">
-        <v>665.26801943054</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E419" t="n">
-        <v>102.007418845119</v>
+        <v>135.090683679242</v>
+      </c>
+      <c r="F419" t="n">
+        <v>22.9709229384902</v>
       </c>
     </row>
     <row r="420">
@@ -7492,10 +8752,13 @@
         <v>85</v>
       </c>
       <c r="D420" t="n">
-        <v>623.538883136903</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E420" t="n">
-        <v>90.2521220505386</v>
+        <v>123.250326878625</v>
+      </c>
+      <c r="F420" t="n">
+        <v>15.6713133993948</v>
       </c>
     </row>
     <row r="421">
@@ -7509,10 +8772,13 @@
         <v>85</v>
       </c>
       <c r="D421" t="n">
-        <v>676.119018182407</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E421" t="n">
-        <v>98.70169170187</v>
+        <v>130.216795890767</v>
+      </c>
+      <c r="F421" t="n">
+        <v>17.3209991522124</v>
       </c>
     </row>
     <row r="422">
@@ -7526,10 +8792,13 @@
         <v>85</v>
       </c>
       <c r="D422" t="n">
-        <v>772.443717963277</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E422" t="n">
-        <v>111.78801203273</v>
+        <v>146.411635843439</v>
+      </c>
+      <c r="F422" t="n">
+        <v>18.4619138400054</v>
       </c>
     </row>
     <row r="423">
@@ -7543,10 +8812,13 @@
         <v>85</v>
       </c>
       <c r="D423" t="n">
-        <v>798.852168312405</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E423" t="n">
-        <v>114.653717439918</v>
+        <v>150.438339674248</v>
+      </c>
+      <c r="F423" t="n">
+        <v>17.9910473158949</v>
       </c>
     </row>
     <row r="424">
@@ -7560,10 +8832,13 @@
         <v>85</v>
       </c>
       <c r="D424" t="n">
-        <v>853.7316504982</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E424" t="n">
-        <v>125.91954572427</v>
+        <v>161.798726599324</v>
+      </c>
+      <c r="F424" t="n">
+        <v>22.7692410627201</v>
       </c>
     </row>
     <row r="425">
@@ -7577,10 +8852,13 @@
         <v>85</v>
       </c>
       <c r="D425" t="n">
-        <v>972.988383565416</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E425" t="n">
-        <v>146.690496121532</v>
+        <v>185.628426421112</v>
+      </c>
+      <c r="F425" t="n">
+        <v>29.3143507574628</v>
       </c>
     </row>
     <row r="426">
@@ -7594,10 +8872,13 @@
         <v>85</v>
       </c>
       <c r="D426" t="n">
-        <v>1156.80539332025</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E426" t="n">
-        <v>184.560519198559</v>
+        <v>222.119060645372</v>
+      </c>
+      <c r="F426" t="n">
+        <v>45.2216083759091</v>
       </c>
     </row>
     <row r="427">
@@ -7611,10 +8892,13 @@
         <v>85</v>
       </c>
       <c r="D427" t="n">
-        <v>1378.90406178254</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E427" t="n">
-        <v>230.004373763896</v>
+        <v>264.746540931452</v>
+      </c>
+      <c r="F427" t="n">
+        <v>63.9106907676185</v>
       </c>
     </row>
     <row r="428">
@@ -7628,10 +8912,13 @@
         <v>85</v>
       </c>
       <c r="D428" t="n">
-        <v>1157.58765389483</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E428" t="n">
-        <v>179.907037938577</v>
+        <v>220.986623941143</v>
+      </c>
+      <c r="F428" t="n">
+        <v>40.282692501065</v>
       </c>
     </row>
     <row r="429">
@@ -7645,10 +8932,13 @@
         <v>85</v>
       </c>
       <c r="D429" t="n">
-        <v>866.642451137958</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E429" t="n">
-        <v>129.54573203181</v>
+        <v>163.971945543443</v>
+      </c>
+      <c r="F429" t="n">
+        <v>24.7947161091267</v>
       </c>
     </row>
     <row r="430">
@@ -7662,10 +8952,13 @@
         <v>85</v>
       </c>
       <c r="D430" t="n">
-        <v>570.75170233947</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E430" t="n">
-        <v>83.409490430724</v>
+        <v>107.163479005985</v>
+      </c>
+      <c r="F430" t="n">
+        <v>14.2998053402884</v>
       </c>
     </row>
     <row r="431">
@@ -7679,10 +8972,13 @@
         <v>85</v>
       </c>
       <c r="D431" t="n">
-        <v>322.665584788209</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E431" t="n">
-        <v>47.2359464276848</v>
+        <v>61.0108237329769</v>
+      </c>
+      <c r="F431" t="n">
+        <v>8.22961013874011</v>
       </c>
     </row>
     <row r="432">
@@ -7696,10 +8992,13 @@
         <v>85</v>
       </c>
       <c r="D432" t="n">
-        <v>136.87862092021</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E432" t="n">
-        <v>19.8901888491329</v>
+        <v>26.4362933453176</v>
+      </c>
+      <c r="F432" t="n">
+        <v>3.42593437676474</v>
       </c>
     </row>
     <row r="433">
@@ -7713,10 +9012,13 @@
         <v>85</v>
       </c>
       <c r="D433" t="n">
-        <v>71.7999549595722</v>
+        <v>21.5720236248365</v>
       </c>
       <c r="E433" t="n">
-        <v>11.2305531253797</v>
+        <v>14.1821782760085</v>
+      </c>
+      <c r="F433" t="n">
+        <v>2.64114942228414</v>
       </c>
     </row>
     <row r="434">
@@ -7730,10 +9032,13 @@
         <v>90</v>
       </c>
       <c r="D434" t="n">
-        <v>40.2946346103485</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E434" t="n">
-        <v>5.5335157914008</v>
+        <v>6.23252492707999</v>
+      </c>
+      <c r="F434" t="n">
+        <v>3.29652312076385</v>
       </c>
     </row>
     <row r="435">
@@ -7747,10 +9052,13 @@
         <v>90</v>
       </c>
       <c r="D435" t="n">
-        <v>19.8321590640439</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E435" t="n">
-        <v>3.24710853643856</v>
+        <v>3.13952439122525</v>
+      </c>
+      <c r="F435" t="n">
+        <v>2.15083758422981</v>
       </c>
     </row>
     <row r="436">
@@ -7764,10 +9072,13 @@
         <v>90</v>
       </c>
       <c r="D436" t="n">
-        <v>13.1760703849379</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E436" t="n">
-        <v>2.49819890760173</v>
+        <v>2.14423828979782</v>
+      </c>
+      <c r="F436" t="n">
+        <v>1.77369511820057</v>
       </c>
     </row>
     <row r="437">
@@ -7781,10 +9092,13 @@
         <v>90</v>
       </c>
       <c r="D437" t="n">
-        <v>12.744356380064</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E437" t="n">
-        <v>2.36849474410464</v>
+        <v>2.1172016113007</v>
+      </c>
+      <c r="F437" t="n">
+        <v>1.67056770586469</v>
       </c>
     </row>
     <row r="438">
@@ -7798,10 +9112,13 @@
         <v>90</v>
       </c>
       <c r="D438" t="n">
-        <v>28.6214510800149</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E438" t="n">
-        <v>2.6993173063474</v>
+        <v>4.89696123478333</v>
+      </c>
+      <c r="F438" t="n">
+        <v>1.14123677663632</v>
       </c>
     </row>
     <row r="439">
@@ -7815,10 +9132,13 @@
         <v>90</v>
       </c>
       <c r="D439" t="n">
-        <v>142.623002288131</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E439" t="n">
-        <v>9.27713296987473</v>
+        <v>24.9980366502122</v>
+      </c>
+      <c r="F439" t="n">
+        <v>1.55223899053332</v>
       </c>
     </row>
     <row r="440">
@@ -7832,10 +9152,13 @@
         <v>90</v>
       </c>
       <c r="D440" t="n">
-        <v>405.089547235089</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E440" t="n">
-        <v>22.4455167151178</v>
+        <v>72.6590125254372</v>
+      </c>
+      <c r="F440" t="n">
+        <v>0.613496427581141</v>
       </c>
     </row>
     <row r="441">
@@ -7849,10 +9172,13 @@
         <v>90</v>
       </c>
       <c r="D441" t="n">
-        <v>788.962638996384</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E441" t="n">
-        <v>44.3159373483351</v>
+        <v>137.841312779259</v>
+      </c>
+      <c r="F441" t="n">
+        <v>1.55423973221269</v>
       </c>
     </row>
     <row r="442">
@@ -7866,10 +9192,13 @@
         <v>90</v>
       </c>
       <c r="D442" t="n">
-        <v>902.426653309416</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E442" t="n">
-        <v>65.3786983928738</v>
+        <v>146.357129206434</v>
+      </c>
+      <c r="F442" t="n">
+        <v>15.7246399790719</v>
       </c>
     </row>
     <row r="443">
@@ -7883,10 +9212,13 @@
         <v>90</v>
       </c>
       <c r="D443" t="n">
-        <v>717.680403180767</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E443" t="n">
-        <v>52.4412003945117</v>
+        <v>111.317458444501</v>
+      </c>
+      <c r="F443" t="n">
+        <v>12.6189616743083</v>
       </c>
     </row>
     <row r="444">
@@ -7900,10 +9232,13 @@
         <v>90</v>
       </c>
       <c r="D444" t="n">
-        <v>672.663684377363</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E444" t="n">
-        <v>43.9502740356136</v>
+        <v>101.560764716825</v>
+      </c>
+      <c r="F444" t="n">
+        <v>6.44369979991582</v>
       </c>
     </row>
     <row r="445">
@@ -7917,10 +9252,13 @@
         <v>90</v>
       </c>
       <c r="D445" t="n">
-        <v>729.386285519467</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E445" t="n">
-        <v>48.2866255954189</v>
+        <v>107.301276228376</v>
+      </c>
+      <c r="F445" t="n">
+        <v>7.43185707880952</v>
       </c>
     </row>
     <row r="446">
@@ -7934,10 +9272,13 @@
         <v>90</v>
       </c>
       <c r="D446" t="n">
-        <v>833.29981714267</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E446" t="n">
-        <v>53.8376952568659</v>
+        <v>120.646152235721</v>
+      </c>
+      <c r="F446" t="n">
+        <v>7.03492702191735</v>
       </c>
     </row>
     <row r="447">
@@ -7951,10 +9292,13 @@
         <v>90</v>
       </c>
       <c r="D447" t="n">
-        <v>861.788827196339</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E447" t="n">
-        <v>54.6375308131833</v>
+        <v>123.964237718349</v>
+      </c>
+      <c r="F447" t="n">
+        <v>6.18168899288867</v>
       </c>
     </row>
     <row r="448">
@@ -7968,10 +9312,13 @@
         <v>90</v>
       </c>
       <c r="D448" t="n">
-        <v>920.991926926231</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E448" t="n">
-        <v>61.6102685836968</v>
+        <v>133.325426550943</v>
+      </c>
+      <c r="F448" t="n">
+        <v>9.8811125029363</v>
       </c>
     </row>
     <row r="449">
@@ -7985,10 +9332,13 @@
         <v>90</v>
       </c>
       <c r="D449" t="n">
-        <v>1049.64416597864</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E449" t="n">
-        <v>73.0520502452024</v>
+        <v>152.961581668459</v>
+      </c>
+      <c r="F449" t="n">
+        <v>14.1633792955291</v>
       </c>
     </row>
     <row r="450">
@@ -8002,10 +9352,13 @@
         <v>90</v>
       </c>
       <c r="D450" t="n">
-        <v>1247.9429896396</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E450" t="n">
-        <v>96.5425086938863</v>
+        <v>183.030603071277</v>
+      </c>
+      <c r="F450" t="n">
+        <v>26.6055251724576</v>
       </c>
     </row>
     <row r="451">
@@ -8019,10 +9372,13 @@
         <v>90</v>
       </c>
       <c r="D451" t="n">
-        <v>1487.53944891983</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E451" t="n">
-        <v>124.61211611375</v>
+        <v>218.156509877749</v>
+      </c>
+      <c r="F451" t="n">
+        <v>41.2467474600417</v>
       </c>
     </row>
     <row r="452">
@@ -8036,10 +9392,13 @@
         <v>90</v>
       </c>
       <c r="D452" t="n">
-        <v>1248.78687972323</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E452" t="n">
-        <v>91.827833061831</v>
+        <v>182.097452299287</v>
+      </c>
+      <c r="F452" t="n">
+        <v>21.7741442803225</v>
       </c>
     </row>
     <row r="453">
@@ -8053,10 +9412,13 @@
         <v>90</v>
       </c>
       <c r="D453" t="n">
-        <v>934.919890300241</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E453" t="n">
-        <v>64.2264738647217</v>
+        <v>135.116202960641</v>
+      </c>
+      <c r="F453" t="n">
+        <v>11.7002209941915</v>
       </c>
     </row>
     <row r="454">
@@ -8070,10 +9432,13 @@
         <v>90</v>
       </c>
       <c r="D454" t="n">
-        <v>615.717725619407</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E454" t="n">
-        <v>41.2370572008458</v>
+        <v>88.304876369872</v>
+      </c>
+      <c r="F454" t="n">
+        <v>6.59978167265095</v>
       </c>
     </row>
     <row r="455">
@@ -8087,10 +9452,13 @@
         <v>90</v>
       </c>
       <c r="D455" t="n">
-        <v>348.086425650795</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E455" t="n">
-        <v>24.470696273415</v>
+        <v>50.2741540022573</v>
+      </c>
+      <c r="F455" t="n">
+        <v>4.91219343556041</v>
       </c>
     </row>
     <row r="456">
@@ -8104,10 +9472,13 @@
         <v>90</v>
       </c>
       <c r="D456" t="n">
-        <v>147.662447283925</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E456" t="n">
-        <v>11.6586081175493</v>
+        <v>21.7840409548999</v>
+      </c>
+      <c r="F456" t="n">
+        <v>3.3916782365793</v>
       </c>
     </row>
     <row r="457">
@@ -8121,10 +9492,13 @@
         <v>90</v>
       </c>
       <c r="D457" t="n">
-        <v>77.4566326934747</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E457" t="n">
-        <v>8.08992063822376</v>
+        <v>11.6864020367281</v>
+      </c>
+      <c r="F457" t="n">
+        <v>3.77053099109588</v>
       </c>
     </row>
     <row r="458">
@@ -8138,10 +9512,13 @@
         <v>90</v>
       </c>
       <c r="D458" t="n">
-        <v>41.1171532425096</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E458" t="n">
-        <v>6.54066622658854</v>
+        <v>6.03984173435999</v>
+      </c>
+      <c r="F458" t="n">
+        <v>1.31149553127627</v>
       </c>
     </row>
     <row r="459">
@@ -8155,10 +9532,13 @@
         <v>90</v>
       </c>
       <c r="D459" t="n">
-        <v>20.2369851780886</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E459" t="n">
-        <v>2.48538695002903</v>
+        <v>3.04246363488633</v>
+      </c>
+      <c r="F459" t="n">
+        <v>-0.0778963891955029</v>
       </c>
     </row>
     <row r="460">
@@ -8172,10 +9552,13 @@
         <v>90</v>
       </c>
       <c r="D460" t="n">
-        <v>13.4450283614794</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E460" t="n">
-        <v>1.16109390724025</v>
+        <v>2.07794755137886</v>
+      </c>
+      <c r="F460" t="n">
+        <v>-0.533460301956029</v>
       </c>
     </row>
     <row r="461">
@@ -8189,10 +9572,13 @@
         <v>90</v>
       </c>
       <c r="D461" t="n">
-        <v>13.0045019473056</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E461" t="n">
-        <v>0.994070367462174</v>
+        <v>2.05174673211926</v>
+      </c>
+      <c r="F461" t="n">
+        <v>-0.638718011740565</v>
       </c>
     </row>
     <row r="462">
@@ -8206,10 +9592,13 @@
         <v>90</v>
       </c>
       <c r="D462" t="n">
-        <v>29.2056895777814</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E462" t="n">
-        <v>2.69738320027072</v>
+        <v>4.74556799747042</v>
+      </c>
+      <c r="F462" t="n">
+        <v>-0.949023706992415</v>
       </c>
     </row>
     <row r="463">
@@ -8223,10 +9612,13 @@
         <v>90</v>
       </c>
       <c r="D463" t="n">
-        <v>145.534309907399</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E463" t="n">
-        <v>19.1300257587356</v>
+        <v>24.2252035577097</v>
+      </c>
+      <c r="F463" t="n">
+        <v>1.04579989521878</v>
       </c>
     </row>
     <row r="464">
@@ -8240,10 +9632,13 @@
         <v>90</v>
       </c>
       <c r="D464" t="n">
-        <v>413.358481883997</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E464" t="n">
-        <v>54.9872443378374</v>
+        <v>70.4127045399764</v>
+      </c>
+      <c r="F464" t="n">
+        <v>3.86240232844362</v>
       </c>
     </row>
     <row r="465">
@@ -8257,10 +9652,13 @@
         <v>90</v>
       </c>
       <c r="D465" t="n">
-        <v>805.067425078423</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E465" t="n">
-        <v>110.041449128745</v>
+        <v>133.579844987992</v>
+      </c>
+      <c r="F465" t="n">
+        <v>9.93904603382087</v>
       </c>
     </row>
     <row r="466">
@@ -8274,10 +9672,13 @@
         <v>90</v>
       </c>
       <c r="D466" t="n">
-        <v>920.847535982347</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E466" t="n">
-        <v>140.912569866727</v>
+        <v>141.832388549514</v>
+      </c>
+      <c r="F466" t="n">
+        <v>24.7804318830705</v>
       </c>
     </row>
     <row r="467">
@@ -8291,10 +9692,13 @@
         <v>90</v>
       </c>
       <c r="D467" t="n">
-        <v>732.330132834886</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E467" t="n">
-        <v>112.004742559573</v>
+        <v>107.875995546315</v>
+      </c>
+      <c r="F467" t="n">
+        <v>18.913877413958</v>
       </c>
     </row>
     <row r="468">
@@ -8308,10 +9712,13 @@
         <v>90</v>
       </c>
       <c r="D468" t="n">
-        <v>686.394505339726</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E468" t="n">
-        <v>99.6223606328843</v>
+        <v>98.420937338727</v>
+      </c>
+      <c r="F468" t="n">
+        <v>11.9698576554344</v>
       </c>
     </row>
     <row r="469">
@@ -8325,10 +9732,13 @@
         <v>90</v>
       </c>
       <c r="D469" t="n">
-        <v>744.27496277598</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E469" t="n">
-        <v>108.862078939564</v>
+        <v>103.983976622115</v>
+      </c>
+      <c r="F469" t="n">
+        <v>13.4103263019518</v>
       </c>
     </row>
     <row r="470">
@@ -8342,10 +9752,13 @@
         <v>90</v>
       </c>
       <c r="D470" t="n">
-        <v>850.309640718544</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E470" t="n">
-        <v>123.3959199347</v>
+        <v>116.916285757184</v>
+      </c>
+      <c r="F470" t="n">
+        <v>14.0648773030637</v>
       </c>
     </row>
     <row r="471">
@@ -8359,10 +9772,13 @@
         <v>90</v>
       </c>
       <c r="D471" t="n">
-        <v>879.380185803058</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E471" t="n">
-        <v>126.658478669008</v>
+        <v>120.131790133119</v>
+      </c>
+      <c r="F471" t="n">
+        <v>13.4730807465448</v>
       </c>
     </row>
     <row r="472">
@@ -8376,10 +9792,13 @@
         <v>90</v>
       </c>
       <c r="D472" t="n">
-        <v>939.791775275576</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E472" t="n">
-        <v>138.749009077419</v>
+        <v>129.203570776733</v>
+      </c>
+      <c r="F472" t="n">
+        <v>17.9100991756051</v>
       </c>
     </row>
     <row r="473">
@@ -8393,10 +9812,13 @@
         <v>90</v>
       </c>
       <c r="D473" t="n">
-        <v>1071.07014221606</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E473" t="n">
-        <v>161.312091563973</v>
+        <v>148.232659399521</v>
+      </c>
+      <c r="F473" t="n">
+        <v>23.7395549526989</v>
       </c>
     </row>
     <row r="474">
@@ -8410,10 +9832,13 @@
         <v>90</v>
       </c>
       <c r="D474" t="n">
-        <v>1273.41676228401</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E474" t="n">
-        <v>201.944427118179</v>
+        <v>177.372074404668</v>
+      </c>
+      <c r="F474" t="n">
+        <v>38.5509252735548</v>
       </c>
     </row>
     <row r="475">
@@ -8427,10 +9852,13 @@
         <v>90</v>
       </c>
       <c r="D475" t="n">
-        <v>1517.90401047109</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E475" t="n">
-        <v>250.725872279059</v>
+        <v>211.412037400269</v>
+      </c>
+      <c r="F475" t="n">
+        <v>55.9598185107896</v>
       </c>
     </row>
     <row r="476">
@@ -8444,10 +9872,13 @@
         <v>90</v>
       </c>
       <c r="D476" t="n">
-        <v>1274.27787836619</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E476" t="n">
-        <v>197.302701289038</v>
+        <v>176.467772690185</v>
+      </c>
+      <c r="F476" t="n">
+        <v>33.6460187555188</v>
       </c>
     </row>
     <row r="477">
@@ -8461,10 +9892,13 @@
         <v>90</v>
       </c>
       <c r="D477" t="n">
-        <v>954.004044723929</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E477" t="n">
-        <v>142.569212607549</v>
+        <v>130.938983987711</v>
+      </c>
+      <c r="F477" t="n">
+        <v>19.8703080767016</v>
       </c>
     </row>
     <row r="478">
@@ -8478,10 +9912,13 @@
         <v>90</v>
       </c>
       <c r="D478" t="n">
-        <v>628.286130975881</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E478" t="n">
-        <v>91.986468975022</v>
+        <v>85.5748647436428</v>
+      </c>
+      <c r="F478" t="n">
+        <v>11.081470063173</v>
       </c>
     </row>
     <row r="479">
@@ -8495,10 +9932,13 @@
         <v>90</v>
       </c>
       <c r="D479" t="n">
-        <v>355.191777851374</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E479" t="n">
-        <v>52.0848076511697</v>
+        <v>48.7198907433392</v>
+      </c>
+      <c r="F479" t="n">
+        <v>6.39733212642643</v>
       </c>
     </row>
     <row r="480">
@@ -8512,10 +9952,13 @@
         <v>90</v>
       </c>
       <c r="D480" t="n">
-        <v>150.676623124853</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E480" t="n">
-        <v>21.9471340846768</v>
+        <v>21.1105709550776</v>
+      </c>
+      <c r="F480" t="n">
+        <v>2.63199920166042</v>
       </c>
     </row>
     <row r="481">
@@ -8529,10 +9972,13 @@
         <v>90</v>
       </c>
       <c r="D481" t="n">
-        <v>79.0377246723677</v>
+        <v>26.5720236248365</v>
       </c>
       <c r="E481" t="n">
-        <v>12.3095278715707</v>
+        <v>11.3251081338249</v>
+      </c>
+      <c r="F481" t="n">
+        <v>2.21523002254659</v>
       </c>
     </row>
     <row r="482">
@@ -8546,10 +9992,13 @@
         <v>95</v>
       </c>
       <c r="D482" t="n">
-        <v>44.3565213641097</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E482" t="n">
-        <v>5.80027586532495</v>
+        <v>4.71754120759666</v>
+      </c>
+      <c r="F482" t="n">
+        <v>3.19702818318859</v>
       </c>
     </row>
     <row r="483">
@@ -8563,10 +10012,13 @@
         <v>95</v>
       </c>
       <c r="D483" t="n">
-        <v>21.8313330230512</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E483" t="n">
-        <v>3.37840215081573</v>
+        <v>2.3763780909255</v>
+      </c>
+      <c r="F483" t="n">
+        <v>2.10071876609821</v>
       </c>
     </row>
     <row r="484">
@@ -8580,10 +10032,13 @@
         <v>95</v>
       </c>
       <c r="D484" t="n">
-        <v>14.5042796187663</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E484" t="n">
-        <v>2.58542763033131</v>
+        <v>1.62302319034078</v>
+      </c>
+      <c r="F484" t="n">
+        <v>1.73946487326999</v>
       </c>
     </row>
     <row r="485">
@@ -8597,10 +10052,13 @@
         <v>95</v>
       </c>
       <c r="D485" t="n">
-        <v>14.0290468324276</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E485" t="n">
-        <v>2.45286541734531</v>
+        <v>1.60255850766097</v>
+      </c>
+      <c r="F485" t="n">
+        <v>1.63676906973965</v>
       </c>
     </row>
     <row r="486">
@@ -8614,10 +10072,13 @@
         <v>95</v>
       </c>
       <c r="D486" t="n">
-        <v>31.5066265913342</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E486" t="n">
-        <v>2.8887981263065</v>
+        <v>3.70662238617266</v>
+      </c>
+      <c r="F486" t="n">
+        <v>1.06306254419221</v>
       </c>
     </row>
     <row r="487">
@@ -8631,10 +10092,13 @@
         <v>95</v>
       </c>
       <c r="D487" t="n">
-        <v>157.000064876683</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E487" t="n">
-        <v>10.2213311987847</v>
+        <v>18.9215878614446</v>
+      </c>
+      <c r="F487" t="n">
+        <v>1.15317470677726</v>
       </c>
     </row>
     <row r="488">
@@ -8648,10 +10112,13 @@
         <v>95</v>
       </c>
       <c r="D488" t="n">
-        <v>445.924459424088</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E488" t="n">
-        <v>25.127305956075</v>
+        <v>54.9972747325416</v>
+      </c>
+      <c r="F488" t="n">
+        <v>-0.546419336909111</v>
       </c>
     </row>
     <row r="489">
@@ -8665,10 +10132,13 @@
         <v>95</v>
       </c>
       <c r="D489" t="n">
-        <v>868.493745892906</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E489" t="n">
-        <v>49.5390578440851</v>
+        <v>104.33525429156</v>
+      </c>
+      <c r="F489" t="n">
+        <v>-0.646234870091059</v>
       </c>
     </row>
     <row r="490">
@@ -8682,10 +10152,13 @@
         <v>95</v>
       </c>
       <c r="D490" t="n">
-        <v>993.395461061732</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E490" t="n">
-        <v>71.3529776753597</v>
+        <v>110.781071256844</v>
+      </c>
+      <c r="F490" t="n">
+        <v>13.38822037314</v>
       </c>
     </row>
     <row r="491">
@@ -8699,10 +10172,13 @@
         <v>95</v>
       </c>
       <c r="D491" t="n">
-        <v>790.02592886436</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E491" t="n">
-        <v>57.1924155192481</v>
+        <v>84.2587399939848</v>
+      </c>
+      <c r="F491" t="n">
+        <v>10.8419092423397</v>
       </c>
     </row>
     <row r="492">
@@ -8716,10 +10192,13 @@
         <v>95</v>
       </c>
       <c r="D492" t="n">
-        <v>740.471315237649</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E492" t="n">
-        <v>48.4034677648977</v>
+        <v>76.8736745110976</v>
+      </c>
+      <c r="F492" t="n">
+        <v>4.82240151971295</v>
       </c>
     </row>
     <row r="493">
@@ -8733,10 +10212,13 @@
         <v>95</v>
       </c>
       <c r="D493" t="n">
-        <v>802.91181863761</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E493" t="n">
-        <v>53.1153364480163</v>
+        <v>81.2187994685223</v>
+      </c>
+      <c r="F493" t="n">
+        <v>5.71891827712068</v>
       </c>
     </row>
     <row r="494">
@@ -8750,10 +10232,13 @@
         <v>95</v>
       </c>
       <c r="D494" t="n">
-        <v>917.300318000772</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E494" t="n">
-        <v>59.3543384271422</v>
+        <v>91.3198424986725</v>
+      </c>
+      <c r="F494" t="n">
+        <v>5.10895295429136</v>
       </c>
     </row>
     <row r="495">
@@ -8767,10 +10252,13 @@
         <v>95</v>
       </c>
       <c r="D495" t="n">
-        <v>948.661152893747</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E495" t="n">
-        <v>60.3427780122946</v>
+        <v>93.8313775792002</v>
+      </c>
+      <c r="F495" t="n">
+        <v>4.20274558910664</v>
       </c>
     </row>
     <row r="496">
@@ -8784,10 +10272,13 @@
         <v>95</v>
       </c>
       <c r="D496" t="n">
-        <v>1013.8322006867</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E496" t="n">
-        <v>67.7074543972962</v>
+        <v>100.917076326746</v>
+      </c>
+      <c r="F496" t="n">
+        <v>7.75272871834129</v>
       </c>
     </row>
     <row r="497">
@@ -8801,10 +10292,13 @@
         <v>95</v>
       </c>
       <c r="D497" t="n">
-        <v>1155.45318435491</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E497" t="n">
-        <v>80.0009445091203</v>
+        <v>115.78013295459</v>
+      </c>
+      <c r="F497" t="n">
+        <v>11.7215273659217</v>
       </c>
     </row>
     <row r="498">
@@ -8818,10 +10312,13 @@
         <v>95</v>
       </c>
       <c r="D498" t="n">
-        <v>1373.74145258842</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E498" t="n">
-        <v>104.804188378752</v>
+        <v>138.54006559819</v>
+      </c>
+      <c r="F498" t="n">
+        <v>23.6836566456564</v>
       </c>
     </row>
     <row r="499">
@@ -8835,10 +10332,13 @@
         <v>95</v>
       </c>
       <c r="D499" t="n">
-        <v>1637.49035036597</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E499" t="n">
-        <v>134.459981398947</v>
+        <v>165.127670903022</v>
+      </c>
+      <c r="F499" t="n">
+        <v>37.764135102149</v>
       </c>
     </row>
     <row r="500">
@@ -8852,10 +10352,13 @@
         <v>95</v>
       </c>
       <c r="D500" t="n">
-        <v>1374.67041072108</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E500" t="n">
-        <v>100.095099499952</v>
+        <v>137.833742354999</v>
+      </c>
+      <c r="F500" t="n">
+        <v>18.8671724091936</v>
       </c>
     </row>
     <row r="501">
@@ -8869,10 +10372,13 @@
         <v>95</v>
       </c>
       <c r="D501" t="n">
-        <v>1029.16416760815</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E501" t="n">
-        <v>70.4158661116389</v>
+        <v>102.272556105035</v>
+      </c>
+      <c r="F501" t="n">
+        <v>9.54324956828274</v>
       </c>
     </row>
     <row r="502">
@@ -8886,10 +10392,13 @@
         <v>95</v>
       </c>
       <c r="D502" t="n">
-        <v>677.784938734355</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E502" t="n">
-        <v>45.3132551262257</v>
+        <v>66.839988284134</v>
+      </c>
+      <c r="F502" t="n">
+        <v>5.19009807494283</v>
       </c>
     </row>
     <row r="503">
@@ -8903,10 +10412,13 @@
         <v>95</v>
       </c>
       <c r="D503" t="n">
-        <v>383.175157815447</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E503" t="n">
-        <v>26.7751112789491</v>
+        <v>38.053661390461</v>
+      </c>
+      <c r="F503" t="n">
+        <v>4.10962563637358</v>
       </c>
     </row>
     <row r="504">
@@ -8920,10 +10432,13 @@
         <v>95</v>
       </c>
       <c r="D504" t="n">
-        <v>162.54750938836</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E504" t="n">
-        <v>12.6361686720546</v>
+        <v>16.4888407306959</v>
+      </c>
+      <c r="F504" t="n">
+        <v>3.04392161782476</v>
       </c>
     </row>
     <row r="505">
@@ -8937,10 +10452,13 @@
         <v>95</v>
       </c>
       <c r="D505" t="n">
-        <v>85.2646218555795</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E505" t="n">
-        <v>8.60270198648596</v>
+        <v>8.84570600548501</v>
+      </c>
+      <c r="F505" t="n">
+        <v>3.58397131348085</v>
       </c>
     </row>
     <row r="506">
@@ -8954,10 +10472,13 @@
         <v>95</v>
       </c>
       <c r="D506" t="n">
-        <v>45.2619537034928</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E506" t="n">
-        <v>7.15855477552863</v>
+        <v>4.57169487528303</v>
+      </c>
+      <c r="F506" t="n">
+        <v>1.09263068098362</v>
       </c>
     </row>
     <row r="507">
@@ -8971,10 +10492,13 @@
         <v>95</v>
       </c>
       <c r="D507" t="n">
-        <v>22.276967493993</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E507" t="n">
-        <v>2.78949850495262</v>
+        <v>2.3029105760697</v>
+      </c>
+      <c r="F507" t="n">
+        <v>-0.188145693276118</v>
       </c>
     </row>
     <row r="508">
@@ -8988,10 +10512,13 @@
         <v>95</v>
       </c>
       <c r="D508" t="n">
-        <v>14.8003498114327</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E508" t="n">
-        <v>1.36313924378714</v>
+        <v>1.57284620848634</v>
+      </c>
+      <c r="F508" t="n">
+        <v>-0.608758579584941</v>
       </c>
     </row>
     <row r="509">
@@ -9005,10 +10532,13 @@
         <v>95</v>
       </c>
       <c r="D509" t="n">
-        <v>14.3154162839121</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E509" t="n">
-        <v>1.18949568765681</v>
+        <v>1.55301420685359</v>
+      </c>
+      <c r="F509" t="n">
+        <v>-0.713066854162893</v>
       </c>
     </row>
     <row r="510">
@@ -9022,10 +10552,13 @@
         <v>95</v>
       </c>
       <c r="D510" t="n">
-        <v>32.1497590495017</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E510" t="n">
-        <v>3.13627207585934</v>
+        <v>3.59202936906783</v>
+      </c>
+      <c r="F510" t="n">
+        <v>-1.12098815159223</v>
       </c>
     </row>
     <row r="511">
@@ -9039,10 +10572,13 @@
         <v>95</v>
       </c>
       <c r="D511" t="n">
-        <v>160.204845857087</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E511" t="n">
-        <v>21.3170444718091</v>
+        <v>18.3366127505335</v>
+      </c>
+      <c r="F511" t="n">
+        <v>0.167954782191316</v>
       </c>
     </row>
     <row r="512">
@@ -9056,10 +10592,13 @@
         <v>95</v>
       </c>
       <c r="D512" t="n">
-        <v>455.026941180269</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E512" t="n">
-        <v>61.1989942383466</v>
+        <v>53.2969926461722</v>
+      </c>
+      <c r="F512" t="n">
+        <v>1.3108675837214</v>
       </c>
     </row>
     <row r="513">
@@ -9073,10 +10612,13 @@
         <v>95</v>
       </c>
       <c r="D513" t="n">
-        <v>886.221969385194</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E513" t="n">
-        <v>122.139610208787</v>
+        <v>101.109651482849</v>
+      </c>
+      <c r="F513" t="n">
+        <v>5.09853297714706</v>
       </c>
     </row>
     <row r="514">
@@ -9090,10 +10632,13 @@
         <v>95</v>
       </c>
       <c r="D514" t="n">
-        <v>1013.67325446348</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E514" t="n">
-        <v>154.750618051808</v>
+        <v>107.356191171733</v>
+      </c>
+      <c r="F514" t="n">
+        <v>19.6408726277437</v>
       </c>
     </row>
     <row r="515">
@@ -9107,10 +10652,13 @@
         <v>95</v>
       </c>
       <c r="D515" t="n">
-        <v>806.15241946702</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E515" t="n">
-        <v>123.009843045339</v>
+        <v>81.6538177150439</v>
+      </c>
+      <c r="F515" t="n">
+        <v>15.0047909421885</v>
       </c>
     </row>
     <row r="516">
@@ -9124,10 +10672,13 @@
         <v>95</v>
       </c>
       <c r="D516" t="n">
-        <v>755.586266874596</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E516" t="n">
-        <v>109.937162885934</v>
+        <v>74.4970670824521</v>
+      </c>
+      <c r="F516" t="n">
+        <v>8.40339272742821</v>
       </c>
     </row>
     <row r="517">
@@ -9141,10 +10692,13 @@
         <v>95</v>
       </c>
       <c r="D517" t="n">
-        <v>819.301343873365</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E517" t="n">
-        <v>120.046680510829</v>
+        <v>78.7078592358593</v>
+      </c>
+      <c r="F517" t="n">
+        <v>9.64227434344369</v>
       </c>
     </row>
     <row r="518">
@@ -9158,10 +10712,13 @@
         <v>95</v>
       </c>
       <c r="D518" t="n">
-        <v>936.024810979527</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E518" t="n">
-        <v>136.173958991892</v>
+        <v>88.4966209284099</v>
+      </c>
+      <c r="F518" t="n">
+        <v>9.82819917399164</v>
       </c>
     </row>
     <row r="519">
@@ -9175,10 +10732,13 @@
         <v>95</v>
       </c>
       <c r="D519" t="n">
-        <v>968.025802341697</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E519" t="n">
-        <v>139.873375716178</v>
+        <v>90.9305100141592</v>
+      </c>
+      <c r="F519" t="n">
+        <v>9.11988286168999</v>
       </c>
     </row>
     <row r="520">
@@ -9192,10 +10752,13 @@
         <v>95</v>
       </c>
       <c r="D520" t="n">
-        <v>1034.52716126926</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E520" t="n">
-        <v>152.871742062019</v>
+        <v>97.7971490590477</v>
+      </c>
+      <c r="F520" t="n">
+        <v>13.2281685193008</v>
       </c>
     </row>
     <row r="521">
@@ -9209,10 +10772,13 @@
         <v>95</v>
       </c>
       <c r="D521" t="n">
-        <v>1179.03899874216</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E521" t="n">
-        <v>177.407611895441</v>
+        <v>112.200703119611</v>
+      </c>
+      <c r="F521" t="n">
+        <v>18.3680700306033</v>
       </c>
     </row>
     <row r="522">
@@ -9226,10 +10792,13 @@
         <v>95</v>
       </c>
       <c r="D522" t="n">
-        <v>1401.78310010434</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E522" t="n">
-        <v>221.080713884019</v>
+        <v>134.256995338317</v>
+      </c>
+      <c r="F522" t="n">
+        <v>32.1235196861154</v>
       </c>
     </row>
     <row r="523">
@@ -9243,10 +10812,13 @@
         <v>95</v>
       </c>
       <c r="D523" t="n">
-        <v>1670.91580107881</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E523" t="n">
-        <v>273.536194310076</v>
+        <v>160.022624840909</v>
+      </c>
+      <c r="F523" t="n">
+        <v>48.2989118263567</v>
       </c>
     </row>
     <row r="524">
@@ -9260,10 +10832,13 @@
         <v>95</v>
       </c>
       <c r="D524" t="n">
-        <v>1402.73102069639</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E524" t="n">
-        <v>216.451928487873</v>
+        <v>133.572508609088</v>
+      </c>
+      <c r="F524" t="n">
+        <v>27.2513822153599</v>
       </c>
     </row>
     <row r="525">
@@ -9277,10 +10852,13 @@
         <v>95</v>
       </c>
       <c r="D525" t="n">
-        <v>1050.17209364088</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E525" t="n">
-        <v>156.905520653992</v>
+        <v>99.1107231611618</v>
+      </c>
+      <c r="F525" t="n">
+        <v>15.1254915089245</v>
       </c>
     </row>
     <row r="526">
@@ -9294,10 +10872,13 @@
         <v>95</v>
       </c>
       <c r="D526" t="n">
-        <v>691.620297860904</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E526" t="n">
-        <v>101.428046885297</v>
+        <v>64.7735798068898</v>
+      </c>
+      <c r="F526" t="n">
+        <v>7.98050636500481</v>
       </c>
     </row>
     <row r="527">
@@ -9311,10 +10892,13 @@
         <v>95</v>
       </c>
       <c r="D527" t="n">
-        <v>390.996762595642</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E527" t="n">
-        <v>57.4224566590571</v>
+        <v>36.8772038460168</v>
+      </c>
+      <c r="F527" t="n">
+        <v>4.63187666206312</v>
       </c>
     </row>
     <row r="528">
@@ -9328,10 +10912,13 @@
         <v>95</v>
       </c>
       <c r="D528" t="n">
-        <v>165.865528186053</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E528" t="n">
-        <v>24.2114289757334</v>
+        <v>15.9790758258757</v>
+      </c>
+      <c r="F528" t="n">
+        <v>1.86701856890794</v>
       </c>
     </row>
     <row r="529">
@@ -9345,10 +10932,13 @@
         <v>95</v>
       </c>
       <c r="D529" t="n">
-        <v>87.0050952664584</v>
+        <v>31.5720236248365</v>
       </c>
       <c r="E529" t="n">
-        <v>13.4972682951671</v>
+        <v>8.57223435556128</v>
+      </c>
+      <c r="F529" t="n">
+        <v>1.80484375660242</v>
       </c>
     </row>
   </sheetData>
